--- a/timeline_covid.xlsx
+++ b/timeline_covid.xlsx
@@ -1,12 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stnyl\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCE39A68-1A6A-4BA0-A54D-F6C81E318AF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="2240" yWindow="2240" windowWidth="28800" windowHeight="15370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7mhCfnZrsyy7yptRaAdLuxOeif4jpw=="/>
@@ -1251,32 +1260,23 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11.0"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11.0"/>
-      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
     </font>
   </fonts>
@@ -1285,69 +1285,61 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="3">
-    <border/>
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left/>
+      <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="2" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
+  <cellXfs count="6">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -1537,31 +1529,33 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A206" workbookViewId="0">
+      <selection activeCell="F223" sqref="F223"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="8.71"/>
-    <col customWidth="1" min="2" max="2" width="79.57"/>
-    <col customWidth="1" min="3" max="3" width="8.71"/>
-    <col customWidth="1" min="4" max="4" width="25.29"/>
-    <col customWidth="1" min="5" max="5" width="20.14"/>
-    <col customWidth="1" min="6" max="6" width="8.71"/>
-    <col customWidth="1" min="7" max="7" width="23.29"/>
-    <col customWidth="1" min="8" max="8" width="21.14"/>
-    <col customWidth="1" min="9" max="26" width="8.71"/>
+    <col min="1" max="1" width="8.7265625" customWidth="1"/>
+    <col min="2" max="2" width="79.54296875" customWidth="1"/>
+    <col min="3" max="3" width="8.7265625" customWidth="1"/>
+    <col min="4" max="4" width="25.26953125" customWidth="1"/>
+    <col min="5" max="5" width="20.08984375" customWidth="1"/>
+    <col min="6" max="6" width="8.7265625" customWidth="1"/>
+    <col min="7" max="7" width="23.26953125" customWidth="1"/>
+    <col min="8" max="8" width="21.08984375" customWidth="1"/>
+    <col min="9" max="26" width="8.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1581,7 +1575,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
@@ -1589,7 +1583,7 @@
         <v>7</v>
       </c>
       <c r="C2" s="1">
-        <v>2020.0</v>
+        <v>2020</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>8</v>
@@ -1598,13 +1592,10 @@
         <v>9</v>
       </c>
       <c r="F2" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="4"/>
-    </row>
-    <row r="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
@@ -1612,7 +1603,7 @@
         <v>11</v>
       </c>
       <c r="C3" s="1">
-        <v>2020.0</v>
+        <v>2020</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>8</v>
@@ -1621,13 +1612,10 @@
         <v>9</v>
       </c>
       <c r="F3" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="4"/>
-    </row>
-    <row r="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
@@ -1635,7 +1623,7 @@
         <v>13</v>
       </c>
       <c r="C4" s="1">
-        <v>2020.0</v>
+        <v>2020</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>14</v>
@@ -1644,13 +1632,10 @@
         <v>15</v>
       </c>
       <c r="F4" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="4"/>
-    </row>
-    <row r="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>16</v>
       </c>
@@ -1658,7 +1643,7 @@
         <v>17</v>
       </c>
       <c r="C5" s="1">
-        <v>2020.0</v>
+        <v>2020</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>18</v>
@@ -1667,13 +1652,10 @@
         <v>9</v>
       </c>
       <c r="F5" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="4"/>
-    </row>
-    <row r="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>19</v>
       </c>
@@ -1681,7 +1663,7 @@
         <v>20</v>
       </c>
       <c r="C6" s="1">
-        <v>2020.0</v>
+        <v>2020</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>8</v>
@@ -1690,13 +1672,10 @@
         <v>9</v>
       </c>
       <c r="F6" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="4"/>
-    </row>
-    <row r="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>21</v>
       </c>
@@ -1704,7 +1683,7 @@
         <v>22</v>
       </c>
       <c r="C7" s="1">
-        <v>2020.0</v>
+        <v>2020</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>8</v>
@@ -1713,13 +1692,10 @@
         <v>9</v>
       </c>
       <c r="F7" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="4"/>
-    </row>
-    <row r="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>23</v>
       </c>
@@ -1727,7 +1703,7 @@
         <v>24</v>
       </c>
       <c r="C8" s="1">
-        <v>2020.0</v>
+        <v>2020</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>14</v>
@@ -1736,13 +1712,10 @@
         <v>9</v>
       </c>
       <c r="F8" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="4"/>
-    </row>
-    <row r="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>25</v>
       </c>
@@ -1750,7 +1723,7 @@
         <v>26</v>
       </c>
       <c r="C9" s="1">
-        <v>2020.0</v>
+        <v>2020</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>8</v>
@@ -1759,13 +1732,10 @@
         <v>9</v>
       </c>
       <c r="F9" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="4"/>
-    </row>
-    <row r="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>27</v>
       </c>
@@ -1773,7 +1743,7 @@
         <v>28</v>
       </c>
       <c r="C10" s="1">
-        <v>2020.0</v>
+        <v>2020</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>8</v>
@@ -1782,38 +1752,30 @@
         <v>9</v>
       </c>
       <c r="F10" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="4"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A11" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C11" s="5">
-        <v>2020.0</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F11" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="G11" s="7"/>
-      <c r="H11" s="8"/>
-      <c r="I11" s="9"/>
-      <c r="J11" s="10"/>
-      <c r="K11" s="10"/>
-    </row>
-    <row r="12">
+      <c r="C11" s="3">
+        <v>2020</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F11" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>31</v>
       </c>
@@ -1821,7 +1783,7 @@
         <v>32</v>
       </c>
       <c r="C12" s="1">
-        <v>2020.0</v>
+        <v>2020</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>14</v>
@@ -1830,13 +1792,10 @@
         <v>15</v>
       </c>
       <c r="F12" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="4"/>
-    </row>
-    <row r="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>33</v>
       </c>
@@ -1844,7 +1803,7 @@
         <v>34</v>
       </c>
       <c r="C13" s="1">
-        <v>2020.0</v>
+        <v>2020</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>8</v>
@@ -1853,13 +1812,10 @@
         <v>9</v>
       </c>
       <c r="F13" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="4"/>
-    </row>
-    <row r="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>35</v>
       </c>
@@ -1867,7 +1823,7 @@
         <v>36</v>
       </c>
       <c r="C14" s="1">
-        <v>2020.0</v>
+        <v>2020</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>18</v>
@@ -1876,13 +1832,10 @@
         <v>15</v>
       </c>
       <c r="F14" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="4"/>
-    </row>
-    <row r="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
         <v>37</v>
       </c>
@@ -1890,7 +1843,7 @@
         <v>38</v>
       </c>
       <c r="C15" s="1">
-        <v>2020.0</v>
+        <v>2020</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>14</v>
@@ -1899,13 +1852,10 @@
         <v>15</v>
       </c>
       <c r="F15" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="4"/>
-    </row>
-    <row r="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
         <v>39</v>
       </c>
@@ -1913,7 +1863,7 @@
         <v>40</v>
       </c>
       <c r="C16" s="1">
-        <v>2020.0</v>
+        <v>2020</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>8</v>
@@ -1922,13 +1872,10 @@
         <v>15</v>
       </c>
       <c r="F16" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="4"/>
-    </row>
-    <row r="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
         <v>41</v>
       </c>
@@ -1936,7 +1883,7 @@
         <v>42</v>
       </c>
       <c r="C17" s="1">
-        <v>2020.0</v>
+        <v>2020</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>14</v>
@@ -1945,13 +1892,10 @@
         <v>15</v>
       </c>
       <c r="F17" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="4"/>
-    </row>
-    <row r="18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
         <v>43</v>
       </c>
@@ -1959,7 +1903,7 @@
         <v>44</v>
       </c>
       <c r="C18" s="1">
-        <v>2020.0</v>
+        <v>2020</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>14</v>
@@ -1968,13 +1912,10 @@
         <v>15</v>
       </c>
       <c r="F18" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="4"/>
-    </row>
-    <row r="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
         <v>45</v>
       </c>
@@ -1982,7 +1923,7 @@
         <v>46</v>
       </c>
       <c r="C19" s="1">
-        <v>2020.0</v>
+        <v>2020</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>8</v>
@@ -1991,13 +1932,10 @@
         <v>9</v>
       </c>
       <c r="F19" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="4"/>
-    </row>
-    <row r="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
         <v>47</v>
       </c>
@@ -2005,7 +1943,7 @@
         <v>48</v>
       </c>
       <c r="C20" s="1">
-        <v>2020.0</v>
+        <v>2020</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>18</v>
@@ -2014,13 +1952,10 @@
         <v>15</v>
       </c>
       <c r="F20" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="4"/>
-    </row>
-    <row r="21" ht="15.75" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
         <v>49</v>
       </c>
@@ -2028,7 +1963,7 @@
         <v>50</v>
       </c>
       <c r="C21" s="1">
-        <v>2020.0</v>
+        <v>2020</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>18</v>
@@ -2037,13 +1972,10 @@
         <v>9</v>
       </c>
       <c r="F21" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="4"/>
-    </row>
-    <row r="22" ht="15.75" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
         <v>51</v>
       </c>
@@ -2051,7 +1983,7 @@
         <v>52</v>
       </c>
       <c r="C22" s="1">
-        <v>2020.0</v>
+        <v>2020</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>18</v>
@@ -2060,38 +1992,30 @@
         <v>15</v>
       </c>
       <c r="F22" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="4"/>
-    </row>
-    <row r="23" ht="15.75" customHeight="1">
-      <c r="A23" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="B23" s="5" t="s">
+      <c r="B23" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="C23" s="5">
-        <v>2020.0</v>
-      </c>
-      <c r="D23" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="E23" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F23" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="G23" s="10"/>
-      <c r="H23" s="10"/>
-      <c r="I23" s="10"/>
-      <c r="J23" s="10"/>
-      <c r="K23" s="10"/>
-    </row>
-    <row r="24" ht="15.75" customHeight="1">
+      <c r="C23" s="3">
+        <v>2020</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F23" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
         <v>53</v>
       </c>
@@ -2099,7 +2023,7 @@
         <v>55</v>
       </c>
       <c r="C24" s="1">
-        <v>2020.0</v>
+        <v>2020</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>8</v>
@@ -2108,10 +2032,10 @@
         <v>15</v>
       </c>
       <c r="F24" s="1">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="25" ht="15.75" customHeight="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
         <v>56</v>
       </c>
@@ -2119,7 +2043,7 @@
         <v>57</v>
       </c>
       <c r="C25" s="1">
-        <v>2020.0</v>
+        <v>2020</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>18</v>
@@ -2128,13 +2052,10 @@
         <v>15</v>
       </c>
       <c r="F25" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="G25" s="3"/>
-      <c r="H25" s="3"/>
-      <c r="I25" s="4"/>
-    </row>
-    <row r="26" ht="15.75" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
         <v>58</v>
       </c>
@@ -2142,7 +2063,7 @@
         <v>59</v>
       </c>
       <c r="C26" s="1">
-        <v>2020.0</v>
+        <v>2020</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>18</v>
@@ -2151,13 +2072,10 @@
         <v>15</v>
       </c>
       <c r="F26" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="G26" s="3"/>
-      <c r="H26" s="3"/>
-      <c r="I26" s="4"/>
-    </row>
-    <row r="27" ht="15.75" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
         <v>60</v>
       </c>
@@ -2165,7 +2083,7 @@
         <v>61</v>
       </c>
       <c r="C27" s="1">
-        <v>2020.0</v>
+        <v>2020</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>18</v>
@@ -2174,13 +2092,10 @@
         <v>15</v>
       </c>
       <c r="F27" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="G27" s="3"/>
-      <c r="H27" s="3"/>
-      <c r="I27" s="4"/>
-    </row>
-    <row r="28" ht="15.75" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
         <v>62</v>
       </c>
@@ -2188,7 +2103,7 @@
         <v>63</v>
       </c>
       <c r="C28" s="1">
-        <v>2020.0</v>
+        <v>2020</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>14</v>
@@ -2197,13 +2112,10 @@
         <v>15</v>
       </c>
       <c r="F28" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="G28" s="3"/>
-      <c r="H28" s="3"/>
-      <c r="I28" s="4"/>
-    </row>
-    <row r="29" ht="15.75" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
         <v>62</v>
       </c>
@@ -2211,7 +2123,7 @@
         <v>64</v>
       </c>
       <c r="C29" s="1">
-        <v>2020.0</v>
+        <v>2020</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>18</v>
@@ -2220,13 +2132,10 @@
         <v>9</v>
       </c>
       <c r="F29" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="G29" s="3"/>
-      <c r="H29" s="3"/>
-      <c r="I29" s="4"/>
-    </row>
-    <row r="30" ht="15.75" customHeight="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
         <v>62</v>
       </c>
@@ -2234,7 +2143,7 @@
         <v>65</v>
       </c>
       <c r="C30" s="1">
-        <v>2020.0</v>
+        <v>2020</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>8</v>
@@ -2243,13 +2152,10 @@
         <v>15</v>
       </c>
       <c r="F30" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="G30" s="3"/>
-      <c r="H30" s="3"/>
-      <c r="I30" s="4"/>
-    </row>
-    <row r="31" ht="15.75" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
         <v>66</v>
       </c>
@@ -2257,7 +2163,7 @@
         <v>67</v>
       </c>
       <c r="C31" s="1">
-        <v>2020.0</v>
+        <v>2020</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>18</v>
@@ -2266,13 +2172,10 @@
         <v>15</v>
       </c>
       <c r="F31" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="G31" s="3"/>
-      <c r="H31" s="3"/>
-      <c r="I31" s="4"/>
-    </row>
-    <row r="32" ht="15.75" customHeight="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
         <v>68</v>
       </c>
@@ -2280,7 +2183,7 @@
         <v>69</v>
       </c>
       <c r="C32" s="1">
-        <v>2020.0</v>
+        <v>2020</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>14</v>
@@ -2289,13 +2192,10 @@
         <v>9</v>
       </c>
       <c r="F32" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="G32" s="3"/>
-      <c r="H32" s="3"/>
-      <c r="I32" s="4"/>
-    </row>
-    <row r="33" ht="15.75" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="1" t="s">
         <v>70</v>
       </c>
@@ -2303,7 +2203,7 @@
         <v>71</v>
       </c>
       <c r="C33" s="1">
-        <v>2020.0</v>
+        <v>2020</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>8</v>
@@ -2312,13 +2212,10 @@
         <v>15</v>
       </c>
       <c r="F33" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="G33" s="3"/>
-      <c r="H33" s="3"/>
-      <c r="I33" s="4"/>
-    </row>
-    <row r="34" ht="15.75" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="1" t="s">
         <v>72</v>
       </c>
@@ -2326,7 +2223,7 @@
         <v>73</v>
       </c>
       <c r="C34" s="1">
-        <v>2020.0</v>
+        <v>2020</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>18</v>
@@ -2335,13 +2232,10 @@
         <v>15</v>
       </c>
       <c r="F34" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="G34" s="3"/>
-      <c r="H34" s="3"/>
-      <c r="I34" s="4"/>
-    </row>
-    <row r="35" ht="15.75" customHeight="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="1" t="s">
         <v>74</v>
       </c>
@@ -2349,7 +2243,7 @@
         <v>75</v>
       </c>
       <c r="C35" s="1">
-        <v>2020.0</v>
+        <v>2020</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>8</v>
@@ -2358,13 +2252,10 @@
         <v>15</v>
       </c>
       <c r="F35" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="G35" s="3"/>
-      <c r="H35" s="3"/>
-      <c r="I35" s="4"/>
-    </row>
-    <row r="36" ht="15.75" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="1" t="s">
         <v>76</v>
       </c>
@@ -2372,7 +2263,7 @@
         <v>77</v>
       </c>
       <c r="C36" s="1">
-        <v>2020.0</v>
+        <v>2020</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>18</v>
@@ -2381,13 +2272,10 @@
         <v>15</v>
       </c>
       <c r="F36" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="G36" s="3"/>
-      <c r="H36" s="3"/>
-      <c r="I36" s="4"/>
-    </row>
-    <row r="37" ht="15.75" customHeight="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="1" t="s">
         <v>78</v>
       </c>
@@ -2395,7 +2283,7 @@
         <v>79</v>
       </c>
       <c r="C37" s="1">
-        <v>2020.0</v>
+        <v>2020</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>8</v>
@@ -2404,13 +2292,10 @@
         <v>15</v>
       </c>
       <c r="F37" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="G37" s="3"/>
-      <c r="H37" s="3"/>
-      <c r="I37" s="4"/>
-    </row>
-    <row r="38" ht="15.75" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="1" t="s">
         <v>80</v>
       </c>
@@ -2418,7 +2303,7 @@
         <v>81</v>
       </c>
       <c r="C38" s="1">
-        <v>2020.0</v>
+        <v>2020</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>18</v>
@@ -2427,13 +2312,10 @@
         <v>15</v>
       </c>
       <c r="F38" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="G38" s="3"/>
-      <c r="H38" s="3"/>
-      <c r="I38" s="4"/>
-    </row>
-    <row r="39" ht="15.75" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="1" t="s">
         <v>82</v>
       </c>
@@ -2441,7 +2323,7 @@
         <v>83</v>
       </c>
       <c r="C39" s="1">
-        <v>2020.0</v>
+        <v>2020</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>18</v>
@@ -2450,13 +2332,10 @@
         <v>15</v>
       </c>
       <c r="F39" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="G39" s="3"/>
-      <c r="H39" s="3"/>
-      <c r="I39" s="4"/>
-    </row>
-    <row r="40" ht="15.75" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" s="1" t="s">
         <v>84</v>
       </c>
@@ -2464,7 +2343,7 @@
         <v>85</v>
       </c>
       <c r="C40" s="1">
-        <v>2020.0</v>
+        <v>2020</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>18</v>
@@ -2473,13 +2352,10 @@
         <v>15</v>
       </c>
       <c r="F40" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="G40" s="3"/>
-      <c r="H40" s="3"/>
-      <c r="I40" s="4"/>
-    </row>
-    <row r="41" ht="15.75" customHeight="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41" s="1" t="s">
         <v>86</v>
       </c>
@@ -2487,7 +2363,7 @@
         <v>87</v>
       </c>
       <c r="C41" s="1">
-        <v>2020.0</v>
+        <v>2020</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>18</v>
@@ -2496,13 +2372,10 @@
         <v>9</v>
       </c>
       <c r="F41" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="G41" s="3"/>
-      <c r="H41" s="3"/>
-      <c r="I41" s="4"/>
-    </row>
-    <row r="42" ht="15.75" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" s="1" t="s">
         <v>88</v>
       </c>
@@ -2510,7 +2383,7 @@
         <v>89</v>
       </c>
       <c r="C42" s="1">
-        <v>2020.0</v>
+        <v>2020</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>8</v>
@@ -2519,13 +2392,10 @@
         <v>15</v>
       </c>
       <c r="F42" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="G42" s="3"/>
-      <c r="H42" s="3"/>
-      <c r="I42" s="4"/>
-    </row>
-    <row r="43" ht="15.75" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A43" s="1" t="s">
         <v>90</v>
       </c>
@@ -2533,7 +2403,7 @@
         <v>91</v>
       </c>
       <c r="C43" s="1">
-        <v>2020.0</v>
+        <v>2020</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>14</v>
@@ -2542,13 +2412,10 @@
         <v>15</v>
       </c>
       <c r="F43" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="G43" s="3"/>
-      <c r="H43" s="3"/>
-      <c r="I43" s="4"/>
-    </row>
-    <row r="44" ht="15.75" customHeight="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A44" s="1" t="s">
         <v>92</v>
       </c>
@@ -2556,7 +2423,7 @@
         <v>93</v>
       </c>
       <c r="C44" s="1">
-        <v>2020.0</v>
+        <v>2020</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>18</v>
@@ -2565,13 +2432,10 @@
         <v>15</v>
       </c>
       <c r="F44" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="G44" s="3"/>
-      <c r="H44" s="3"/>
-      <c r="I44" s="4"/>
-    </row>
-    <row r="45" ht="15.75" customHeight="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A45" s="1" t="s">
         <v>94</v>
       </c>
@@ -2579,7 +2443,7 @@
         <v>95</v>
       </c>
       <c r="C45" s="1">
-        <v>2020.0</v>
+        <v>2020</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>18</v>
@@ -2588,13 +2452,10 @@
         <v>15</v>
       </c>
       <c r="F45" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="G45" s="3"/>
-      <c r="H45" s="3"/>
-      <c r="I45" s="4"/>
-    </row>
-    <row r="46" ht="15.75" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" s="1" t="s">
         <v>96</v>
       </c>
@@ -2602,7 +2463,7 @@
         <v>97</v>
       </c>
       <c r="C46" s="1">
-        <v>2020.0</v>
+        <v>2020</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>18</v>
@@ -2611,13 +2472,10 @@
         <v>15</v>
       </c>
       <c r="F46" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="G46" s="3"/>
-      <c r="H46" s="3"/>
-      <c r="I46" s="4"/>
-    </row>
-    <row r="47" ht="15.75" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A47" s="1" t="s">
         <v>98</v>
       </c>
@@ -2625,7 +2483,7 @@
         <v>99</v>
       </c>
       <c r="C47" s="1">
-        <v>2020.0</v>
+        <v>2020</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>8</v>
@@ -2634,13 +2492,10 @@
         <v>15</v>
       </c>
       <c r="F47" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="G47" s="3"/>
-      <c r="H47" s="3"/>
-      <c r="I47" s="4"/>
-    </row>
-    <row r="48" ht="15.75" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A48" s="1" t="s">
         <v>100</v>
       </c>
@@ -2648,7 +2503,7 @@
         <v>101</v>
       </c>
       <c r="C48" s="1">
-        <v>2020.0</v>
+        <v>2020</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>18</v>
@@ -2657,13 +2512,10 @@
         <v>15</v>
       </c>
       <c r="F48" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="G48" s="3"/>
-      <c r="H48" s="3"/>
-      <c r="I48" s="4"/>
-    </row>
-    <row r="49" ht="15.75" customHeight="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A49" s="1" t="s">
         <v>102</v>
       </c>
@@ -2671,7 +2523,7 @@
         <v>103</v>
       </c>
       <c r="C49" s="1">
-        <v>2020.0</v>
+        <v>2020</v>
       </c>
       <c r="D49" s="1" t="s">
         <v>18</v>
@@ -2680,13 +2532,10 @@
         <v>15</v>
       </c>
       <c r="F49" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="G49" s="3"/>
-      <c r="H49" s="3"/>
-      <c r="I49" s="4"/>
-    </row>
-    <row r="50" ht="15.75" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A50" s="1" t="s">
         <v>104</v>
       </c>
@@ -2694,7 +2543,7 @@
         <v>105</v>
       </c>
       <c r="C50" s="1">
-        <v>2020.0</v>
+        <v>2020</v>
       </c>
       <c r="D50" s="1" t="s">
         <v>18</v>
@@ -2703,13 +2552,10 @@
         <v>15</v>
       </c>
       <c r="F50" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="G50" s="3"/>
-      <c r="H50" s="3"/>
-      <c r="I50" s="4"/>
-    </row>
-    <row r="51" ht="15.75" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A51" s="1" t="s">
         <v>106</v>
       </c>
@@ -2717,7 +2563,7 @@
         <v>107</v>
       </c>
       <c r="C51" s="1">
-        <v>2020.0</v>
+        <v>2020</v>
       </c>
       <c r="D51" s="1" t="s">
         <v>18</v>
@@ -2726,13 +2572,10 @@
         <v>15</v>
       </c>
       <c r="F51" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="G51" s="3"/>
-      <c r="H51" s="3"/>
-      <c r="I51" s="4"/>
-    </row>
-    <row r="52" ht="15.75" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A52" s="1" t="s">
         <v>108</v>
       </c>
@@ -2740,7 +2583,7 @@
         <v>109</v>
       </c>
       <c r="C52" s="1">
-        <v>2020.0</v>
+        <v>2020</v>
       </c>
       <c r="D52" s="1" t="s">
         <v>18</v>
@@ -2749,13 +2592,10 @@
         <v>15</v>
       </c>
       <c r="F52" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="G52" s="3"/>
-      <c r="H52" s="3"/>
-      <c r="I52" s="4"/>
-    </row>
-    <row r="53" ht="15.75" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A53" s="1" t="s">
         <v>110</v>
       </c>
@@ -2763,7 +2603,7 @@
         <v>111</v>
       </c>
       <c r="C53" s="1">
-        <v>2020.0</v>
+        <v>2020</v>
       </c>
       <c r="D53" s="1" t="s">
         <v>18</v>
@@ -2772,13 +2612,10 @@
         <v>15</v>
       </c>
       <c r="F53" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="G53" s="3"/>
-      <c r="H53" s="3"/>
-      <c r="I53" s="4"/>
-    </row>
-    <row r="54" ht="15.75" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A54" s="1" t="s">
         <v>112</v>
       </c>
@@ -2786,7 +2623,7 @@
         <v>113</v>
       </c>
       <c r="C54" s="1">
-        <v>2020.0</v>
+        <v>2020</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>18</v>
@@ -2795,13 +2632,10 @@
         <v>15</v>
       </c>
       <c r="F54" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="G54" s="3"/>
-      <c r="H54" s="3"/>
-      <c r="I54" s="4"/>
-    </row>
-    <row r="55" ht="15.75" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A55" s="1" t="s">
         <v>114</v>
       </c>
@@ -2809,7 +2643,7 @@
         <v>115</v>
       </c>
       <c r="C55" s="1">
-        <v>2020.0</v>
+        <v>2020</v>
       </c>
       <c r="D55" s="1" t="s">
         <v>18</v>
@@ -2818,13 +2652,10 @@
         <v>15</v>
       </c>
       <c r="F55" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="G55" s="3"/>
-      <c r="H55" s="3"/>
-      <c r="I55" s="4"/>
-    </row>
-    <row r="56" ht="15.75" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A56" s="1" t="s">
         <v>116</v>
       </c>
@@ -2832,7 +2663,7 @@
         <v>117</v>
       </c>
       <c r="C56" s="1">
-        <v>2020.0</v>
+        <v>2020</v>
       </c>
       <c r="D56" s="1" t="s">
         <v>8</v>
@@ -2841,13 +2672,10 @@
         <v>15</v>
       </c>
       <c r="F56" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="G56" s="3"/>
-      <c r="H56" s="3"/>
-      <c r="I56" s="4"/>
-    </row>
-    <row r="57" ht="15.75" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A57" s="1" t="s">
         <v>118</v>
       </c>
@@ -2855,7 +2683,7 @@
         <v>119</v>
       </c>
       <c r="C57" s="1">
-        <v>2020.0</v>
+        <v>2020</v>
       </c>
       <c r="D57" s="1" t="s">
         <v>14</v>
@@ -2864,13 +2692,10 @@
         <v>15</v>
       </c>
       <c r="F57" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="G57" s="3"/>
-      <c r="H57" s="3"/>
-      <c r="I57" s="4"/>
-    </row>
-    <row r="58" ht="15.75" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A58" s="1" t="s">
         <v>120</v>
       </c>
@@ -2878,7 +2703,7 @@
         <v>121</v>
       </c>
       <c r="C58" s="1">
-        <v>2020.0</v>
+        <v>2020</v>
       </c>
       <c r="D58" s="1" t="s">
         <v>18</v>
@@ -2887,13 +2712,10 @@
         <v>15</v>
       </c>
       <c r="F58" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="G58" s="3"/>
-      <c r="H58" s="3"/>
-      <c r="I58" s="4"/>
-    </row>
-    <row r="59" ht="15.75" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A59" s="1" t="s">
         <v>122</v>
       </c>
@@ -2901,7 +2723,7 @@
         <v>123</v>
       </c>
       <c r="C59" s="1">
-        <v>2020.0</v>
+        <v>2020</v>
       </c>
       <c r="D59" s="1" t="s">
         <v>8</v>
@@ -2910,13 +2732,10 @@
         <v>15</v>
       </c>
       <c r="F59" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="G59" s="3"/>
-      <c r="H59" s="3"/>
-      <c r="I59" s="4"/>
-    </row>
-    <row r="60" ht="15.75" customHeight="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A60" s="1" t="s">
         <v>122</v>
       </c>
@@ -2924,7 +2743,7 @@
         <v>124</v>
       </c>
       <c r="C60" s="1">
-        <v>2020.0</v>
+        <v>2020</v>
       </c>
       <c r="D60" s="1" t="s">
         <v>8</v>
@@ -2933,13 +2752,10 @@
         <v>15</v>
       </c>
       <c r="F60" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="G60" s="3"/>
-      <c r="H60" s="3"/>
-      <c r="I60" s="4"/>
-    </row>
-    <row r="61" ht="15.75" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A61" s="1" t="s">
         <v>125</v>
       </c>
@@ -2947,7 +2763,7 @@
         <v>126</v>
       </c>
       <c r="C61" s="1">
-        <v>2020.0</v>
+        <v>2020</v>
       </c>
       <c r="D61" s="1" t="s">
         <v>18</v>
@@ -2956,13 +2772,10 @@
         <v>15</v>
       </c>
       <c r="F61" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="G61" s="3"/>
-      <c r="H61" s="3"/>
-      <c r="I61" s="4"/>
-    </row>
-    <row r="62" ht="15.75" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A62" s="1" t="s">
         <v>127</v>
       </c>
@@ -2970,7 +2783,7 @@
         <v>128</v>
       </c>
       <c r="C62" s="1">
-        <v>2020.0</v>
+        <v>2020</v>
       </c>
       <c r="D62" s="1" t="s">
         <v>8</v>
@@ -2979,13 +2792,10 @@
         <v>9</v>
       </c>
       <c r="F62" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="G62" s="3"/>
-      <c r="H62" s="3"/>
-      <c r="I62" s="4"/>
-    </row>
-    <row r="63" ht="15.75" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A63" s="1" t="s">
         <v>129</v>
       </c>
@@ -2993,7 +2803,7 @@
         <v>130</v>
       </c>
       <c r="C63" s="1">
-        <v>2020.0</v>
+        <v>2020</v>
       </c>
       <c r="D63" s="1" t="s">
         <v>8</v>
@@ -3002,13 +2812,10 @@
         <v>15</v>
       </c>
       <c r="F63" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="G63" s="3"/>
-      <c r="H63" s="3"/>
-      <c r="I63" s="4"/>
-    </row>
-    <row r="64" ht="15.75" customHeight="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A64" s="1" t="s">
         <v>131</v>
       </c>
@@ -3016,7 +2823,7 @@
         <v>132</v>
       </c>
       <c r="C64" s="1">
-        <v>2020.0</v>
+        <v>2020</v>
       </c>
       <c r="D64" s="1" t="s">
         <v>18</v>
@@ -3025,13 +2832,10 @@
         <v>15</v>
       </c>
       <c r="F64" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="G64" s="3"/>
-      <c r="H64" s="3"/>
-      <c r="I64" s="4"/>
-    </row>
-    <row r="65" ht="15.75" customHeight="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A65" s="1" t="s">
         <v>133</v>
       </c>
@@ -3039,7 +2843,7 @@
         <v>134</v>
       </c>
       <c r="C65" s="1">
-        <v>2020.0</v>
+        <v>2020</v>
       </c>
       <c r="D65" s="1" t="s">
         <v>14</v>
@@ -3048,13 +2852,10 @@
         <v>9</v>
       </c>
       <c r="F65" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="G65" s="3"/>
-      <c r="H65" s="3"/>
-      <c r="I65" s="4"/>
-    </row>
-    <row r="66" ht="15.75" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A66" s="1" t="s">
         <v>135</v>
       </c>
@@ -3062,7 +2863,7 @@
         <v>136</v>
       </c>
       <c r="C66" s="1">
-        <v>2020.0</v>
+        <v>2020</v>
       </c>
       <c r="D66" s="1" t="s">
         <v>14</v>
@@ -3071,13 +2872,10 @@
         <v>15</v>
       </c>
       <c r="F66" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="G66" s="3"/>
-      <c r="H66" s="3"/>
-      <c r="I66" s="4"/>
-    </row>
-    <row r="67" ht="15.75" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A67" s="1" t="s">
         <v>137</v>
       </c>
@@ -3085,7 +2883,7 @@
         <v>138</v>
       </c>
       <c r="C67" s="1">
-        <v>2020.0</v>
+        <v>2020</v>
       </c>
       <c r="D67" s="1" t="s">
         <v>8</v>
@@ -3094,13 +2892,10 @@
         <v>15</v>
       </c>
       <c r="F67" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="G67" s="3"/>
-      <c r="H67" s="3"/>
-      <c r="I67" s="4"/>
-    </row>
-    <row r="68" ht="15.75" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A68" s="1" t="s">
         <v>139</v>
       </c>
@@ -3108,7 +2903,7 @@
         <v>140</v>
       </c>
       <c r="C68" s="1">
-        <v>2020.0</v>
+        <v>2020</v>
       </c>
       <c r="D68" s="1" t="s">
         <v>18</v>
@@ -3117,13 +2912,10 @@
         <v>15</v>
       </c>
       <c r="F68" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="G68" s="3"/>
-      <c r="H68" s="3"/>
-      <c r="I68" s="4"/>
-    </row>
-    <row r="69" ht="15.75" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A69" s="1" t="s">
         <v>141</v>
       </c>
@@ -3131,7 +2923,7 @@
         <v>142</v>
       </c>
       <c r="C69" s="1">
-        <v>2020.0</v>
+        <v>2020</v>
       </c>
       <c r="D69" s="1" t="s">
         <v>18</v>
@@ -3140,13 +2932,10 @@
         <v>15</v>
       </c>
       <c r="F69" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="G69" s="3"/>
-      <c r="H69" s="3"/>
-      <c r="I69" s="4"/>
-    </row>
-    <row r="70" ht="15.75" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A70" s="1" t="s">
         <v>143</v>
       </c>
@@ -3154,7 +2943,7 @@
         <v>144</v>
       </c>
       <c r="C70" s="1">
-        <v>2020.0</v>
+        <v>2020</v>
       </c>
       <c r="D70" s="1" t="s">
         <v>18</v>
@@ -3163,13 +2952,10 @@
         <v>15</v>
       </c>
       <c r="F70" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="G70" s="3"/>
-      <c r="H70" s="3"/>
-      <c r="I70" s="4"/>
-    </row>
-    <row r="71" ht="15.75" customHeight="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A71" s="1" t="s">
         <v>143</v>
       </c>
@@ -3177,7 +2963,7 @@
         <v>145</v>
       </c>
       <c r="C71" s="1">
-        <v>2020.0</v>
+        <v>2020</v>
       </c>
       <c r="D71" s="1" t="s">
         <v>8</v>
@@ -3186,13 +2972,10 @@
         <v>9</v>
       </c>
       <c r="F71" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="G71" s="3"/>
-      <c r="H71" s="3"/>
-      <c r="I71" s="4"/>
-    </row>
-    <row r="72" ht="15.75" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A72" s="1" t="s">
         <v>146</v>
       </c>
@@ -3200,7 +2983,7 @@
         <v>147</v>
       </c>
       <c r="C72" s="1">
-        <v>2020.0</v>
+        <v>2020</v>
       </c>
       <c r="D72" s="1" t="s">
         <v>8</v>
@@ -3209,13 +2992,10 @@
         <v>15</v>
       </c>
       <c r="F72" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="G72" s="3"/>
-      <c r="H72" s="3"/>
-      <c r="I72" s="4"/>
-    </row>
-    <row r="73" ht="15.75" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A73" s="1" t="s">
         <v>148</v>
       </c>
@@ -3223,7 +3003,7 @@
         <v>149</v>
       </c>
       <c r="C73" s="1">
-        <v>2020.0</v>
+        <v>2020</v>
       </c>
       <c r="D73" s="1" t="s">
         <v>14</v>
@@ -3232,13 +3012,10 @@
         <v>15</v>
       </c>
       <c r="F73" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="G73" s="3"/>
-      <c r="H73" s="3"/>
-      <c r="I73" s="4"/>
-    </row>
-    <row r="74" ht="15.75" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A74" s="1" t="s">
         <v>150</v>
       </c>
@@ -3246,7 +3023,7 @@
         <v>151</v>
       </c>
       <c r="C74" s="1">
-        <v>2020.0</v>
+        <v>2020</v>
       </c>
       <c r="D74" s="1" t="s">
         <v>14</v>
@@ -3255,13 +3032,10 @@
         <v>15</v>
       </c>
       <c r="F74" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="G74" s="3"/>
-      <c r="H74" s="3"/>
-      <c r="I74" s="4"/>
-    </row>
-    <row r="75" ht="15.75" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A75" s="1" t="s">
         <v>152</v>
       </c>
@@ -3269,7 +3043,7 @@
         <v>153</v>
       </c>
       <c r="C75" s="1">
-        <v>2020.0</v>
+        <v>2020</v>
       </c>
       <c r="D75" s="1" t="s">
         <v>8</v>
@@ -3278,13 +3052,10 @@
         <v>15</v>
       </c>
       <c r="F75" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="G75" s="3"/>
-      <c r="H75" s="3"/>
-      <c r="I75" s="4"/>
-    </row>
-    <row r="76" ht="15.75" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A76" s="1" t="s">
         <v>154</v>
       </c>
@@ -3292,7 +3063,7 @@
         <v>155</v>
       </c>
       <c r="C76" s="1">
-        <v>2020.0</v>
+        <v>2020</v>
       </c>
       <c r="D76" s="1" t="s">
         <v>18</v>
@@ -3301,13 +3072,10 @@
         <v>15</v>
       </c>
       <c r="F76" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="G76" s="3"/>
-      <c r="H76" s="3"/>
-      <c r="I76" s="4"/>
-    </row>
-    <row r="77" ht="15.75" customHeight="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A77" s="1" t="s">
         <v>154</v>
       </c>
@@ -3315,7 +3083,7 @@
         <v>156</v>
       </c>
       <c r="C77" s="1">
-        <v>2020.0</v>
+        <v>2020</v>
       </c>
       <c r="D77" s="1" t="s">
         <v>8</v>
@@ -3324,13 +3092,10 @@
         <v>15</v>
       </c>
       <c r="F77" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="G77" s="3"/>
-      <c r="H77" s="3"/>
-      <c r="I77" s="4"/>
-    </row>
-    <row r="78" ht="15.75" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A78" s="1" t="s">
         <v>157</v>
       </c>
@@ -3338,7 +3103,7 @@
         <v>158</v>
       </c>
       <c r="C78" s="1">
-        <v>2020.0</v>
+        <v>2020</v>
       </c>
       <c r="D78" s="1" t="s">
         <v>18</v>
@@ -3347,13 +3112,10 @@
         <v>15</v>
       </c>
       <c r="F78" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="G78" s="3"/>
-      <c r="H78" s="3"/>
-      <c r="I78" s="4"/>
-    </row>
-    <row r="79" ht="15.75" customHeight="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A79" s="1" t="s">
         <v>159</v>
       </c>
@@ -3361,7 +3123,7 @@
         <v>160</v>
       </c>
       <c r="C79" s="1">
-        <v>2020.0</v>
+        <v>2020</v>
       </c>
       <c r="D79" s="1" t="s">
         <v>18</v>
@@ -3370,13 +3132,10 @@
         <v>15</v>
       </c>
       <c r="F79" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="G79" s="3"/>
-      <c r="H79" s="3"/>
-      <c r="I79" s="4"/>
-    </row>
-    <row r="80" ht="15.75" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A80" s="1" t="s">
         <v>161</v>
       </c>
@@ -3384,7 +3143,7 @@
         <v>162</v>
       </c>
       <c r="C80" s="1">
-        <v>2020.0</v>
+        <v>2020</v>
       </c>
       <c r="D80" s="1" t="s">
         <v>14</v>
@@ -3393,13 +3152,10 @@
         <v>15</v>
       </c>
       <c r="F80" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="G80" s="3"/>
-      <c r="H80" s="3"/>
-      <c r="I80" s="4"/>
-    </row>
-    <row r="81" ht="15.75" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A81" s="1" t="s">
         <v>163</v>
       </c>
@@ -3407,7 +3163,7 @@
         <v>164</v>
       </c>
       <c r="C81" s="1">
-        <v>2020.0</v>
+        <v>2020</v>
       </c>
       <c r="D81" s="1" t="s">
         <v>8</v>
@@ -3416,13 +3172,10 @@
         <v>15</v>
       </c>
       <c r="F81" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="G81" s="3"/>
-      <c r="H81" s="3"/>
-      <c r="I81" s="4"/>
-    </row>
-    <row r="82" ht="15.75" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A82" s="1" t="s">
         <v>165</v>
       </c>
@@ -3430,7 +3183,7 @@
         <v>166</v>
       </c>
       <c r="C82" s="1">
-        <v>2020.0</v>
+        <v>2020</v>
       </c>
       <c r="D82" s="1" t="s">
         <v>18</v>
@@ -3439,13 +3192,10 @@
         <v>15</v>
       </c>
       <c r="F82" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="G82" s="3"/>
-      <c r="H82" s="3"/>
-      <c r="I82" s="4"/>
-    </row>
-    <row r="83" ht="15.75" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A83" s="1" t="s">
         <v>167</v>
       </c>
@@ -3453,7 +3203,7 @@
         <v>168</v>
       </c>
       <c r="C83" s="1">
-        <v>2020.0</v>
+        <v>2020</v>
       </c>
       <c r="D83" s="1" t="s">
         <v>18</v>
@@ -3462,13 +3212,10 @@
         <v>15</v>
       </c>
       <c r="F83" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="G83" s="3"/>
-      <c r="H83" s="3"/>
-      <c r="I83" s="4"/>
-    </row>
-    <row r="84" ht="15.75" customHeight="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A84" s="1" t="s">
         <v>169</v>
       </c>
@@ -3476,7 +3223,7 @@
         <v>170</v>
       </c>
       <c r="C84" s="1">
-        <v>2020.0</v>
+        <v>2020</v>
       </c>
       <c r="D84" s="1" t="s">
         <v>14</v>
@@ -3485,13 +3232,10 @@
         <v>9</v>
       </c>
       <c r="F84" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="G84" s="3"/>
-      <c r="H84" s="3"/>
-      <c r="I84" s="4"/>
-    </row>
-    <row r="85" ht="15.75" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A85" s="1" t="s">
         <v>171</v>
       </c>
@@ -3499,7 +3243,7 @@
         <v>172</v>
       </c>
       <c r="C85" s="1">
-        <v>2020.0</v>
+        <v>2020</v>
       </c>
       <c r="D85" s="1" t="s">
         <v>14</v>
@@ -3508,21 +3252,18 @@
         <v>15</v>
       </c>
       <c r="F85" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="G85" s="3"/>
-      <c r="H85" s="3"/>
-      <c r="I85" s="4"/>
-    </row>
-    <row r="86" ht="15.75" customHeight="1">
-      <c r="A86" s="5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A86" s="3" t="s">
         <v>173</v>
       </c>
       <c r="B86" s="1" t="s">
         <v>174</v>
       </c>
       <c r="C86" s="1">
-        <v>2020.0</v>
+        <v>2020</v>
       </c>
       <c r="D86" s="1" t="s">
         <v>8</v>
@@ -3531,13 +3272,10 @@
         <v>15</v>
       </c>
       <c r="F86" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="G86" s="3"/>
-      <c r="H86" s="3"/>
-      <c r="I86" s="4"/>
-    </row>
-    <row r="87" ht="15.75" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A87" s="1" t="s">
         <v>175</v>
       </c>
@@ -3545,7 +3283,7 @@
         <v>176</v>
       </c>
       <c r="C87" s="1">
-        <v>2020.0</v>
+        <v>2020</v>
       </c>
       <c r="D87" s="1" t="s">
         <v>8</v>
@@ -3554,13 +3292,10 @@
         <v>15</v>
       </c>
       <c r="F87" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="G87" s="3"/>
-      <c r="H87" s="3"/>
-      <c r="I87" s="4"/>
-    </row>
-    <row r="88" ht="15.75" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A88" s="1" t="s">
         <v>177</v>
       </c>
@@ -3568,7 +3303,7 @@
         <v>178</v>
       </c>
       <c r="C88" s="1">
-        <v>2020.0</v>
+        <v>2020</v>
       </c>
       <c r="D88" s="1" t="s">
         <v>8</v>
@@ -3577,13 +3312,10 @@
         <v>15</v>
       </c>
       <c r="F88" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="G88" s="3"/>
-      <c r="H88" s="3"/>
-      <c r="I88" s="4"/>
-    </row>
-    <row r="89" ht="15.75" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A89" s="1" t="s">
         <v>179</v>
       </c>
@@ -3591,7 +3323,7 @@
         <v>180</v>
       </c>
       <c r="C89" s="1">
-        <v>2020.0</v>
+        <v>2020</v>
       </c>
       <c r="D89" s="1" t="s">
         <v>14</v>
@@ -3600,13 +3332,10 @@
         <v>15</v>
       </c>
       <c r="F89" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="G89" s="3"/>
-      <c r="H89" s="3"/>
-      <c r="I89" s="4"/>
-    </row>
-    <row r="90" ht="15.75" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A90" s="1" t="s">
         <v>181</v>
       </c>
@@ -3614,7 +3343,7 @@
         <v>182</v>
       </c>
       <c r="C90" s="1">
-        <v>2020.0</v>
+        <v>2020</v>
       </c>
       <c r="D90" s="1" t="s">
         <v>8</v>
@@ -3623,13 +3352,10 @@
         <v>15</v>
       </c>
       <c r="F90" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="G90" s="3"/>
-      <c r="H90" s="3"/>
-      <c r="I90" s="4"/>
-    </row>
-    <row r="91" ht="15.75" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A91" s="1" t="s">
         <v>183</v>
       </c>
@@ -3637,7 +3363,7 @@
         <v>184</v>
       </c>
       <c r="C91" s="1">
-        <v>2020.0</v>
+        <v>2020</v>
       </c>
       <c r="D91" s="1" t="s">
         <v>14</v>
@@ -3646,13 +3372,10 @@
         <v>15</v>
       </c>
       <c r="F91" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="G91" s="3"/>
-      <c r="H91" s="3"/>
-      <c r="I91" s="4"/>
-    </row>
-    <row r="92" ht="15.75" customHeight="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A92" s="1" t="s">
         <v>185</v>
       </c>
@@ -3660,7 +3383,7 @@
         <v>186</v>
       </c>
       <c r="C92" s="1">
-        <v>2020.0</v>
+        <v>2020</v>
       </c>
       <c r="D92" s="1" t="s">
         <v>18</v>
@@ -3669,13 +3392,10 @@
         <v>15</v>
       </c>
       <c r="F92" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="G92" s="3"/>
-      <c r="H92" s="3"/>
-      <c r="I92" s="4"/>
-    </row>
-    <row r="93" ht="15.75" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A93" s="1" t="s">
         <v>187</v>
       </c>
@@ -3683,7 +3403,7 @@
         <v>188</v>
       </c>
       <c r="C93" s="1">
-        <v>2020.0</v>
+        <v>2020</v>
       </c>
       <c r="D93" s="1" t="s">
         <v>8</v>
@@ -3692,13 +3412,10 @@
         <v>15</v>
       </c>
       <c r="F93" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="G93" s="3"/>
-      <c r="H93" s="3"/>
-      <c r="I93" s="4"/>
-    </row>
-    <row r="94" ht="15.75" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A94" s="1" t="s">
         <v>189</v>
       </c>
@@ -3706,7 +3423,7 @@
         <v>190</v>
       </c>
       <c r="C94" s="1">
-        <v>2020.0</v>
+        <v>2020</v>
       </c>
       <c r="D94" s="1" t="s">
         <v>18</v>
@@ -3715,13 +3432,10 @@
         <v>15</v>
       </c>
       <c r="F94" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="G94" s="3"/>
-      <c r="H94" s="3"/>
-      <c r="I94" s="4"/>
-    </row>
-    <row r="95" ht="15.75" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A95" s="1" t="s">
         <v>189</v>
       </c>
@@ -3729,7 +3443,7 @@
         <v>191</v>
       </c>
       <c r="C95" s="1">
-        <v>2020.0</v>
+        <v>2020</v>
       </c>
       <c r="D95" s="1" t="s">
         <v>18</v>
@@ -3738,13 +3452,10 @@
         <v>9</v>
       </c>
       <c r="F95" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="G95" s="3"/>
-      <c r="H95" s="3"/>
-      <c r="I95" s="4"/>
-    </row>
-    <row r="96" ht="15.75" customHeight="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A96" s="1" t="s">
         <v>192</v>
       </c>
@@ -3752,7 +3463,7 @@
         <v>193</v>
       </c>
       <c r="C96" s="1">
-        <v>2020.0</v>
+        <v>2020</v>
       </c>
       <c r="D96" s="1" t="s">
         <v>18</v>
@@ -3761,13 +3472,10 @@
         <v>15</v>
       </c>
       <c r="F96" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="G96" s="3"/>
-      <c r="H96" s="3"/>
-      <c r="I96" s="4"/>
-    </row>
-    <row r="97" ht="15.75" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A97" s="1" t="s">
         <v>194</v>
       </c>
@@ -3775,7 +3483,7 @@
         <v>195</v>
       </c>
       <c r="C97" s="1">
-        <v>2020.0</v>
+        <v>2020</v>
       </c>
       <c r="D97" s="1" t="s">
         <v>8</v>
@@ -3784,13 +3492,10 @@
         <v>15</v>
       </c>
       <c r="F97" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="G97" s="3"/>
-      <c r="H97" s="3"/>
-      <c r="I97" s="4"/>
-    </row>
-    <row r="98" ht="15.75" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A98" s="1" t="s">
         <v>196</v>
       </c>
@@ -3798,7 +3503,7 @@
         <v>197</v>
       </c>
       <c r="C98" s="1">
-        <v>2020.0</v>
+        <v>2020</v>
       </c>
       <c r="D98" s="1" t="s">
         <v>14</v>
@@ -3807,13 +3512,10 @@
         <v>15</v>
       </c>
       <c r="F98" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="G98" s="3"/>
-      <c r="H98" s="3"/>
-      <c r="I98" s="4"/>
-    </row>
-    <row r="99" ht="15.75" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A99" s="1" t="s">
         <v>198</v>
       </c>
@@ -3821,7 +3523,7 @@
         <v>199</v>
       </c>
       <c r="C99" s="1">
-        <v>2020.0</v>
+        <v>2020</v>
       </c>
       <c r="D99" s="2" t="s">
         <v>18</v>
@@ -3830,13 +3532,10 @@
         <v>15</v>
       </c>
       <c r="F99" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="G99" s="3"/>
-      <c r="H99" s="3"/>
-      <c r="I99" s="4"/>
-    </row>
-    <row r="100" ht="15.75" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A100" s="1" t="s">
         <v>200</v>
       </c>
@@ -3844,7 +3543,7 @@
         <v>201</v>
       </c>
       <c r="C100" s="1">
-        <v>2021.0</v>
+        <v>2021</v>
       </c>
       <c r="D100" s="1" t="s">
         <v>18</v>
@@ -3853,13 +3552,10 @@
         <v>15</v>
       </c>
       <c r="F100" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="G100" s="3"/>
-      <c r="H100" s="3"/>
-      <c r="I100" s="4"/>
-    </row>
-    <row r="101" ht="15.75" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A101" s="1" t="s">
         <v>202</v>
       </c>
@@ -3867,7 +3563,7 @@
         <v>203</v>
       </c>
       <c r="C101" s="1">
-        <v>2021.0</v>
+        <v>2021</v>
       </c>
       <c r="D101" s="1" t="s">
         <v>18</v>
@@ -3876,13 +3572,10 @@
         <v>9</v>
       </c>
       <c r="F101" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="G101" s="3"/>
-      <c r="H101" s="3"/>
-      <c r="I101" s="4"/>
-    </row>
-    <row r="102" ht="15.75" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A102" s="1" t="s">
         <v>202</v>
       </c>
@@ -3890,7 +3583,7 @@
         <v>204</v>
       </c>
       <c r="C102" s="1">
-        <v>2021.0</v>
+        <v>2021</v>
       </c>
       <c r="D102" s="1" t="s">
         <v>8</v>
@@ -3899,38 +3592,30 @@
         <v>15</v>
       </c>
       <c r="F102" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="G102" s="3"/>
-      <c r="H102" s="3"/>
-      <c r="I102" s="4"/>
-    </row>
-    <row r="103" ht="15.75" customHeight="1">
-      <c r="A103" s="5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A103" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B103" s="5" t="s">
+      <c r="B103" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="C103" s="5">
-        <v>2021.0</v>
-      </c>
-      <c r="D103" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E103" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F103" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="G103" s="7"/>
-      <c r="H103" s="8"/>
-      <c r="I103" s="9"/>
-      <c r="J103" s="10"/>
-      <c r="K103" s="10"/>
-    </row>
-    <row r="104" ht="15.75" customHeight="1">
+      <c r="C103" s="3">
+        <v>2021</v>
+      </c>
+      <c r="D103" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E103" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F103" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A104" s="1" t="s">
         <v>206</v>
       </c>
@@ -3938,7 +3623,7 @@
         <v>207</v>
       </c>
       <c r="C104" s="1">
-        <v>2021.0</v>
+        <v>2021</v>
       </c>
       <c r="D104" s="1" t="s">
         <v>18</v>
@@ -3947,13 +3632,10 @@
         <v>15</v>
       </c>
       <c r="F104" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="G104" s="3"/>
-      <c r="H104" s="3"/>
-      <c r="I104" s="4"/>
-    </row>
-    <row r="105" ht="15.75" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A105" s="1" t="s">
         <v>208</v>
       </c>
@@ -3961,7 +3643,7 @@
         <v>209</v>
       </c>
       <c r="C105" s="1">
-        <v>2021.0</v>
+        <v>2021</v>
       </c>
       <c r="D105" s="1" t="s">
         <v>14</v>
@@ -3970,13 +3652,10 @@
         <v>15</v>
       </c>
       <c r="F105" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="G105" s="3"/>
-      <c r="H105" s="3"/>
-      <c r="I105" s="4"/>
-    </row>
-    <row r="106" ht="15.75" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A106" s="1" t="s">
         <v>210</v>
       </c>
@@ -3984,7 +3663,7 @@
         <v>211</v>
       </c>
       <c r="C106" s="1">
-        <v>2021.0</v>
+        <v>2021</v>
       </c>
       <c r="D106" s="1" t="s">
         <v>14</v>
@@ -3993,13 +3672,10 @@
         <v>15</v>
       </c>
       <c r="F106" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="G106" s="3"/>
-      <c r="H106" s="3"/>
-      <c r="I106" s="4"/>
-    </row>
-    <row r="107" ht="15.75" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A107" s="1" t="s">
         <v>212</v>
       </c>
@@ -4007,7 +3683,7 @@
         <v>213</v>
       </c>
       <c r="C107" s="1">
-        <v>2021.0</v>
+        <v>2021</v>
       </c>
       <c r="D107" s="1" t="s">
         <v>8</v>
@@ -4016,13 +3692,10 @@
         <v>15</v>
       </c>
       <c r="F107" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="G107" s="3"/>
-      <c r="H107" s="3"/>
-      <c r="I107" s="4"/>
-    </row>
-    <row r="108" ht="15.75" customHeight="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A108" s="1" t="s">
         <v>214</v>
       </c>
@@ -4030,7 +3703,7 @@
         <v>215</v>
       </c>
       <c r="C108" s="1">
-        <v>2021.0</v>
+        <v>2021</v>
       </c>
       <c r="D108" s="1" t="s">
         <v>18</v>
@@ -4039,13 +3712,10 @@
         <v>15</v>
       </c>
       <c r="F108" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="G108" s="3"/>
-      <c r="H108" s="3"/>
-      <c r="I108" s="4"/>
-    </row>
-    <row r="109" ht="15.75" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A109" s="1" t="s">
         <v>25</v>
       </c>
@@ -4053,7 +3723,7 @@
         <v>216</v>
       </c>
       <c r="C109" s="1">
-        <v>2021.0</v>
+        <v>2021</v>
       </c>
       <c r="D109" s="1" t="s">
         <v>8</v>
@@ -4062,13 +3732,10 @@
         <v>15</v>
       </c>
       <c r="F109" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="G109" s="3"/>
-      <c r="H109" s="3"/>
-      <c r="I109" s="4"/>
-    </row>
-    <row r="110" ht="15.75" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A110" s="1" t="s">
         <v>217</v>
       </c>
@@ -4076,7 +3743,7 @@
         <v>218</v>
       </c>
       <c r="C110" s="1">
-        <v>2021.0</v>
+        <v>2021</v>
       </c>
       <c r="D110" s="1" t="s">
         <v>14</v>
@@ -4085,13 +3752,10 @@
         <v>15</v>
       </c>
       <c r="F110" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="G110" s="3"/>
-      <c r="H110" s="3"/>
-      <c r="I110" s="4"/>
-    </row>
-    <row r="111" ht="15.75" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A111" s="1" t="s">
         <v>219</v>
       </c>
@@ -4099,7 +3763,7 @@
         <v>220</v>
       </c>
       <c r="C111" s="1">
-        <v>2021.0</v>
+        <v>2021</v>
       </c>
       <c r="D111" s="1" t="s">
         <v>18</v>
@@ -4108,38 +3772,30 @@
         <v>15</v>
       </c>
       <c r="F111" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="G111" s="3"/>
-      <c r="H111" s="3"/>
-      <c r="I111" s="4"/>
-    </row>
-    <row r="112" ht="15.75" customHeight="1">
-      <c r="A112" s="5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A112" s="3" t="s">
         <v>221</v>
       </c>
-      <c r="B112" s="5" t="s">
+      <c r="B112" s="3" t="s">
         <v>222</v>
       </c>
-      <c r="C112" s="5">
-        <v>2021.0</v>
-      </c>
-      <c r="D112" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E112" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F112" s="6">
-        <v>2.0</v>
-      </c>
-      <c r="G112" s="7"/>
-      <c r="H112" s="8"/>
-      <c r="I112" s="9"/>
-      <c r="J112" s="10"/>
-      <c r="K112" s="10"/>
-    </row>
-    <row r="113" ht="15.75" customHeight="1">
+      <c r="C112" s="3">
+        <v>2021</v>
+      </c>
+      <c r="D112" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E112" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F112" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A113" s="1" t="s">
         <v>223</v>
       </c>
@@ -4147,7 +3803,7 @@
         <v>224</v>
       </c>
       <c r="C113" s="1">
-        <v>2021.0</v>
+        <v>2021</v>
       </c>
       <c r="D113" s="1" t="s">
         <v>14</v>
@@ -4156,13 +3812,10 @@
         <v>15</v>
       </c>
       <c r="F113" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="G113" s="3"/>
-      <c r="H113" s="3"/>
-      <c r="I113" s="4"/>
-    </row>
-    <row r="114" ht="15.75" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A114" s="1" t="s">
         <v>225</v>
       </c>
@@ -4170,7 +3823,7 @@
         <v>226</v>
       </c>
       <c r="C114" s="1">
-        <v>2021.0</v>
+        <v>2021</v>
       </c>
       <c r="D114" s="1" t="s">
         <v>18</v>
@@ -4179,13 +3832,10 @@
         <v>15</v>
       </c>
       <c r="F114" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="G114" s="3"/>
-      <c r="H114" s="3"/>
-      <c r="I114" s="4"/>
-    </row>
-    <row r="115" ht="15.75" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A115" s="1" t="s">
         <v>227</v>
       </c>
@@ -4193,7 +3843,7 @@
         <v>228</v>
       </c>
       <c r="C115" s="1">
-        <v>2021.0</v>
+        <v>2021</v>
       </c>
       <c r="D115" s="1" t="s">
         <v>14</v>
@@ -4202,13 +3852,10 @@
         <v>15</v>
       </c>
       <c r="F115" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="G115" s="3"/>
-      <c r="H115" s="3"/>
-      <c r="I115" s="4"/>
-    </row>
-    <row r="116" ht="15.75" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A116" s="1" t="s">
         <v>43</v>
       </c>
@@ -4216,7 +3863,7 @@
         <v>229</v>
       </c>
       <c r="C116" s="1">
-        <v>2021.0</v>
+        <v>2021</v>
       </c>
       <c r="D116" s="1" t="s">
         <v>8</v>
@@ -4225,13 +3872,10 @@
         <v>15</v>
       </c>
       <c r="F116" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="G116" s="3"/>
-      <c r="H116" s="3"/>
-      <c r="I116" s="4"/>
-    </row>
-    <row r="117" ht="15.75" customHeight="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A117" s="1" t="s">
         <v>230</v>
       </c>
@@ -4239,7 +3883,7 @@
         <v>231</v>
       </c>
       <c r="C117" s="1">
-        <v>2021.0</v>
+        <v>2021</v>
       </c>
       <c r="D117" s="1" t="s">
         <v>14</v>
@@ -4248,13 +3892,10 @@
         <v>15</v>
       </c>
       <c r="F117" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="G117" s="3"/>
-      <c r="H117" s="3"/>
-      <c r="I117" s="4"/>
-    </row>
-    <row r="118" ht="15.75" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A118" s="1" t="s">
         <v>53</v>
       </c>
@@ -4262,7 +3903,7 @@
         <v>232</v>
       </c>
       <c r="C118" s="1">
-        <v>2021.0</v>
+        <v>2021</v>
       </c>
       <c r="D118" s="1" t="s">
         <v>18</v>
@@ -4271,13 +3912,10 @@
         <v>9</v>
       </c>
       <c r="F118" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="G118" s="3"/>
-      <c r="H118" s="3"/>
-      <c r="I118" s="4"/>
-    </row>
-    <row r="119" ht="15.75" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A119" s="1" t="s">
         <v>60</v>
       </c>
@@ -4285,7 +3923,7 @@
         <v>233</v>
       </c>
       <c r="C119" s="1">
-        <v>2021.0</v>
+        <v>2021</v>
       </c>
       <c r="D119" s="1" t="s">
         <v>18</v>
@@ -4294,13 +3932,10 @@
         <v>15</v>
       </c>
       <c r="F119" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="G119" s="3"/>
-      <c r="H119" s="3"/>
-      <c r="I119" s="4"/>
-    </row>
-    <row r="120" ht="15.75" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A120" s="1" t="s">
         <v>66</v>
       </c>
@@ -4308,7 +3943,7 @@
         <v>234</v>
       </c>
       <c r="C120" s="1">
-        <v>2021.0</v>
+        <v>2021</v>
       </c>
       <c r="D120" s="1" t="s">
         <v>18</v>
@@ -4317,13 +3952,10 @@
         <v>15</v>
       </c>
       <c r="F120" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="G120" s="3"/>
-      <c r="H120" s="3"/>
-      <c r="I120" s="4"/>
-    </row>
-    <row r="121" ht="15.75" customHeight="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A121" s="1" t="s">
         <v>68</v>
       </c>
@@ -4331,7 +3963,7 @@
         <v>235</v>
       </c>
       <c r="C121" s="1">
-        <v>2021.0</v>
+        <v>2021</v>
       </c>
       <c r="D121" s="1" t="s">
         <v>8</v>
@@ -4340,13 +3972,10 @@
         <v>15</v>
       </c>
       <c r="F121" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="G121" s="3"/>
-      <c r="H121" s="3"/>
-      <c r="I121" s="4"/>
-    </row>
-    <row r="122" ht="15.75" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A122" s="1" t="s">
         <v>68</v>
       </c>
@@ -4354,7 +3983,7 @@
         <v>236</v>
       </c>
       <c r="C122" s="1">
-        <v>2021.0</v>
+        <v>2021</v>
       </c>
       <c r="D122" s="1" t="s">
         <v>8</v>
@@ -4363,13 +3992,10 @@
         <v>15</v>
       </c>
       <c r="F122" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="G122" s="3"/>
-      <c r="H122" s="3"/>
-      <c r="I122" s="4"/>
-    </row>
-    <row r="123" ht="15.75" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A123" s="1" t="s">
         <v>237</v>
       </c>
@@ -4377,7 +4003,7 @@
         <v>238</v>
       </c>
       <c r="C123" s="1">
-        <v>2021.0</v>
+        <v>2021</v>
       </c>
       <c r="D123" s="1" t="s">
         <v>18</v>
@@ -4386,13 +4012,10 @@
         <v>15</v>
       </c>
       <c r="F123" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="G123" s="3"/>
-      <c r="H123" s="3"/>
-      <c r="I123" s="4"/>
-    </row>
-    <row r="124" ht="15.75" customHeight="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A124" s="1" t="s">
         <v>239</v>
       </c>
@@ -4400,7 +4023,7 @@
         <v>240</v>
       </c>
       <c r="C124" s="1">
-        <v>2021.0</v>
+        <v>2021</v>
       </c>
       <c r="D124" s="1" t="s">
         <v>8</v>
@@ -4409,13 +4032,10 @@
         <v>15</v>
       </c>
       <c r="F124" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="G124" s="3"/>
-      <c r="H124" s="3"/>
-      <c r="I124" s="4"/>
-    </row>
-    <row r="125" ht="15.75" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A125" s="1" t="s">
         <v>84</v>
       </c>
@@ -4423,7 +4043,7 @@
         <v>241</v>
       </c>
       <c r="C125" s="1">
-        <v>2021.0</v>
+        <v>2021</v>
       </c>
       <c r="D125" s="1" t="s">
         <v>18</v>
@@ -4432,13 +4052,10 @@
         <v>15</v>
       </c>
       <c r="F125" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="G125" s="3"/>
-      <c r="H125" s="3"/>
-      <c r="I125" s="4"/>
-    </row>
-    <row r="126" ht="15.75" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A126" s="1" t="s">
         <v>242</v>
       </c>
@@ -4446,7 +4063,7 @@
         <v>243</v>
       </c>
       <c r="C126" s="1">
-        <v>2021.0</v>
+        <v>2021</v>
       </c>
       <c r="D126" s="1" t="s">
         <v>18</v>
@@ -4455,13 +4072,10 @@
         <v>15</v>
       </c>
       <c r="F126" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="G126" s="3"/>
-      <c r="H126" s="3"/>
-      <c r="I126" s="4"/>
-    </row>
-    <row r="127" ht="15.75" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A127" s="1" t="s">
         <v>244</v>
       </c>
@@ -4469,7 +4083,7 @@
         <v>245</v>
       </c>
       <c r="C127" s="1">
-        <v>2021.0</v>
+        <v>2021</v>
       </c>
       <c r="D127" s="1" t="s">
         <v>8</v>
@@ -4478,13 +4092,10 @@
         <v>15</v>
       </c>
       <c r="F127" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="G127" s="3"/>
-      <c r="H127" s="3"/>
-      <c r="I127" s="4"/>
-    </row>
-    <row r="128" ht="15.75" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A128" s="1" t="s">
         <v>92</v>
       </c>
@@ -4492,7 +4103,7 @@
         <v>246</v>
       </c>
       <c r="C128" s="1">
-        <v>2021.0</v>
+        <v>2021</v>
       </c>
       <c r="D128" s="1" t="s">
         <v>14</v>
@@ -4501,13 +4112,10 @@
         <v>15</v>
       </c>
       <c r="F128" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="G128" s="3"/>
-      <c r="H128" s="3"/>
-      <c r="I128" s="4"/>
-    </row>
-    <row r="129" ht="15.75" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A129" s="1" t="s">
         <v>247</v>
       </c>
@@ -4515,7 +4123,7 @@
         <v>248</v>
       </c>
       <c r="C129" s="1">
-        <v>2021.0</v>
+        <v>2021</v>
       </c>
       <c r="D129" s="1" t="s">
         <v>18</v>
@@ -4524,13 +4132,10 @@
         <v>15</v>
       </c>
       <c r="F129" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="G129" s="3"/>
-      <c r="H129" s="3"/>
-      <c r="I129" s="4"/>
-    </row>
-    <row r="130" ht="15.75" customHeight="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A130" s="1" t="s">
         <v>249</v>
       </c>
@@ -4538,7 +4143,7 @@
         <v>250</v>
       </c>
       <c r="C130" s="1">
-        <v>2021.0</v>
+        <v>2021</v>
       </c>
       <c r="D130" s="1" t="s">
         <v>14</v>
@@ -4547,13 +4152,10 @@
         <v>15</v>
       </c>
       <c r="F130" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="G130" s="3"/>
-      <c r="H130" s="3"/>
-      <c r="I130" s="4"/>
-    </row>
-    <row r="131" ht="15.75" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A131" s="1" t="s">
         <v>251</v>
       </c>
@@ -4561,7 +4163,7 @@
         <v>252</v>
       </c>
       <c r="C131" s="1">
-        <v>2021.0</v>
+        <v>2021</v>
       </c>
       <c r="D131" s="1" t="s">
         <v>8</v>
@@ -4570,13 +4172,10 @@
         <v>15</v>
       </c>
       <c r="F131" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="G131" s="3"/>
-      <c r="H131" s="3"/>
-      <c r="I131" s="4"/>
-    </row>
-    <row r="132" ht="15.75" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A132" s="1" t="s">
         <v>251</v>
       </c>
@@ -4584,7 +4183,7 @@
         <v>253</v>
       </c>
       <c r="C132" s="1">
-        <v>2021.0</v>
+        <v>2021</v>
       </c>
       <c r="D132" s="1" t="s">
         <v>8</v>
@@ -4593,13 +4192,10 @@
         <v>15</v>
       </c>
       <c r="F132" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="G132" s="3"/>
-      <c r="H132" s="3"/>
-      <c r="I132" s="4"/>
-    </row>
-    <row r="133" ht="15.75" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A133" s="1" t="s">
         <v>254</v>
       </c>
@@ -4607,7 +4203,7 @@
         <v>255</v>
       </c>
       <c r="C133" s="1">
-        <v>2021.0</v>
+        <v>2021</v>
       </c>
       <c r="D133" s="1" t="s">
         <v>18</v>
@@ -4616,13 +4212,10 @@
         <v>15</v>
       </c>
       <c r="F133" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="G133" s="3"/>
-      <c r="H133" s="3"/>
-      <c r="I133" s="4"/>
-    </row>
-    <row r="134" ht="15.75" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A134" s="1" t="s">
         <v>256</v>
       </c>
@@ -4630,7 +4223,7 @@
         <v>257</v>
       </c>
       <c r="C134" s="1">
-        <v>2021.0</v>
+        <v>2021</v>
       </c>
       <c r="D134" s="1" t="s">
         <v>18</v>
@@ -4639,13 +4232,10 @@
         <v>15</v>
       </c>
       <c r="F134" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="G134" s="3"/>
-      <c r="H134" s="3"/>
-      <c r="I134" s="4"/>
-    </row>
-    <row r="135" ht="15.75" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A135" s="1" t="s">
         <v>258</v>
       </c>
@@ -4653,7 +4243,7 @@
         <v>259</v>
       </c>
       <c r="C135" s="1">
-        <v>2021.0</v>
+        <v>2021</v>
       </c>
       <c r="D135" s="1" t="s">
         <v>14</v>
@@ -4662,13 +4252,10 @@
         <v>15</v>
       </c>
       <c r="F135" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="G135" s="3"/>
-      <c r="H135" s="3"/>
-      <c r="I135" s="4"/>
-    </row>
-    <row r="136" ht="15.75" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A136" s="1" t="s">
         <v>260</v>
       </c>
@@ -4676,7 +4263,7 @@
         <v>261</v>
       </c>
       <c r="C136" s="1">
-        <v>2021.0</v>
+        <v>2021</v>
       </c>
       <c r="D136" s="1" t="s">
         <v>8</v>
@@ -4685,13 +4272,10 @@
         <v>15</v>
       </c>
       <c r="F136" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="G136" s="3"/>
-      <c r="H136" s="3"/>
-      <c r="I136" s="4"/>
-    </row>
-    <row r="137" ht="15.75" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A137" s="1" t="s">
         <v>262</v>
       </c>
@@ -4699,7 +4283,7 @@
         <v>263</v>
       </c>
       <c r="C137" s="1">
-        <v>2021.0</v>
+        <v>2021</v>
       </c>
       <c r="D137" s="1" t="s">
         <v>14</v>
@@ -4708,13 +4292,10 @@
         <v>15</v>
       </c>
       <c r="F137" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="G137" s="3"/>
-      <c r="H137" s="3"/>
-      <c r="I137" s="4"/>
-    </row>
-    <row r="138" ht="15.75" customHeight="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A138" s="1" t="s">
         <v>264</v>
       </c>
@@ -4722,7 +4303,7 @@
         <v>265</v>
       </c>
       <c r="C138" s="1">
-        <v>2021.0</v>
+        <v>2021</v>
       </c>
       <c r="D138" s="1" t="s">
         <v>18</v>
@@ -4731,13 +4312,10 @@
         <v>15</v>
       </c>
       <c r="F138" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="G138" s="3"/>
-      <c r="H138" s="3"/>
-      <c r="I138" s="4"/>
-    </row>
-    <row r="139" ht="15.75" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A139" s="1" t="s">
         <v>264</v>
       </c>
@@ -4745,7 +4323,7 @@
         <v>266</v>
       </c>
       <c r="C139" s="1">
-        <v>2021.0</v>
+        <v>2021</v>
       </c>
       <c r="D139" s="1" t="s">
         <v>8</v>
@@ -4754,13 +4332,10 @@
         <v>15</v>
       </c>
       <c r="F139" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="G139" s="3"/>
-      <c r="H139" s="3"/>
-      <c r="I139" s="4"/>
-    </row>
-    <row r="140" ht="15.75" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A140" s="1" t="s">
         <v>267</v>
       </c>
@@ -4768,7 +4343,7 @@
         <v>268</v>
       </c>
       <c r="C140" s="1">
-        <v>2021.0</v>
+        <v>2021</v>
       </c>
       <c r="D140" s="1" t="s">
         <v>8</v>
@@ -4777,13 +4352,10 @@
         <v>15</v>
       </c>
       <c r="F140" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="G140" s="3"/>
-      <c r="H140" s="3"/>
-      <c r="I140" s="4"/>
-    </row>
-    <row r="141" ht="15.75" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A141" s="1" t="s">
         <v>269</v>
       </c>
@@ -4791,7 +4363,7 @@
         <v>270</v>
       </c>
       <c r="C141" s="1">
-        <v>2021.0</v>
+        <v>2021</v>
       </c>
       <c r="D141" s="1" t="s">
         <v>14</v>
@@ -4800,13 +4372,10 @@
         <v>15</v>
       </c>
       <c r="F141" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="G141" s="3"/>
-      <c r="H141" s="3"/>
-      <c r="I141" s="4"/>
-    </row>
-    <row r="142" ht="15.75" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A142" s="1" t="s">
         <v>271</v>
       </c>
@@ -4814,7 +4383,7 @@
         <v>272</v>
       </c>
       <c r="C142" s="1">
-        <v>2021.0</v>
+        <v>2021</v>
       </c>
       <c r="D142" s="1" t="s">
         <v>14</v>
@@ -4823,13 +4392,10 @@
         <v>15</v>
       </c>
       <c r="F142" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="G142" s="3"/>
-      <c r="H142" s="3"/>
-      <c r="I142" s="4"/>
-    </row>
-    <row r="143" ht="15.75" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A143" s="1" t="s">
         <v>273</v>
       </c>
@@ -4837,7 +4403,7 @@
         <v>274</v>
       </c>
       <c r="C143" s="1">
-        <v>2021.0</v>
+        <v>2021</v>
       </c>
       <c r="D143" s="1" t="s">
         <v>14</v>
@@ -4846,13 +4412,10 @@
         <v>9</v>
       </c>
       <c r="F143" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="G143" s="3"/>
-      <c r="H143" s="3"/>
-      <c r="I143" s="4"/>
-    </row>
-    <row r="144" ht="15.75" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A144" s="1" t="s">
         <v>120</v>
       </c>
@@ -4860,7 +4423,7 @@
         <v>275</v>
       </c>
       <c r="C144" s="1">
-        <v>2021.0</v>
+        <v>2021</v>
       </c>
       <c r="D144" s="1" t="s">
         <v>8</v>
@@ -4869,13 +4432,10 @@
         <v>15</v>
       </c>
       <c r="F144" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="G144" s="3"/>
-      <c r="H144" s="3"/>
-      <c r="I144" s="4"/>
-    </row>
-    <row r="145" ht="15.75" customHeight="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A145" s="1" t="s">
         <v>276</v>
       </c>
@@ -4883,7 +4443,7 @@
         <v>277</v>
       </c>
       <c r="C145" s="1">
-        <v>2021.0</v>
+        <v>2021</v>
       </c>
       <c r="D145" s="1" t="s">
         <v>18</v>
@@ -4892,13 +4452,10 @@
         <v>9</v>
       </c>
       <c r="F145" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="G145" s="3"/>
-      <c r="H145" s="3"/>
-      <c r="I145" s="4"/>
-    </row>
-    <row r="146" ht="15.75" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A146" s="1" t="s">
         <v>278</v>
       </c>
@@ -4906,7 +4463,7 @@
         <v>279</v>
       </c>
       <c r="C146" s="1">
-        <v>2021.0</v>
+        <v>2021</v>
       </c>
       <c r="D146" s="1" t="s">
         <v>18</v>
@@ -4915,13 +4472,10 @@
         <v>15</v>
       </c>
       <c r="F146" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="G146" s="3"/>
-      <c r="H146" s="3"/>
-      <c r="I146" s="4"/>
-    </row>
-    <row r="147" ht="15.75" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A147" s="1" t="s">
         <v>280</v>
       </c>
@@ -4929,7 +4483,7 @@
         <v>281</v>
       </c>
       <c r="C147" s="1">
-        <v>2021.0</v>
+        <v>2021</v>
       </c>
       <c r="D147" s="1" t="s">
         <v>8</v>
@@ -4938,13 +4492,10 @@
         <v>15</v>
       </c>
       <c r="F147" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="G147" s="3"/>
-      <c r="H147" s="3"/>
-      <c r="I147" s="4"/>
-    </row>
-    <row r="148" ht="15.75" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A148" s="1" t="s">
         <v>282</v>
       </c>
@@ -4952,7 +4503,7 @@
         <v>283</v>
       </c>
       <c r="C148" s="1">
-        <v>2021.0</v>
+        <v>2021</v>
       </c>
       <c r="D148" s="1" t="s">
         <v>8</v>
@@ -4961,13 +4512,10 @@
         <v>15</v>
       </c>
       <c r="F148" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="G148" s="3"/>
-      <c r="H148" s="3"/>
-      <c r="I148" s="4"/>
-    </row>
-    <row r="149" ht="15.75" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A149" s="1" t="s">
         <v>127</v>
       </c>
@@ -4975,7 +4523,7 @@
         <v>284</v>
       </c>
       <c r="C149" s="1">
-        <v>2021.0</v>
+        <v>2021</v>
       </c>
       <c r="D149" s="1" t="s">
         <v>14</v>
@@ -4984,13 +4532,10 @@
         <v>15</v>
       </c>
       <c r="F149" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="G149" s="3"/>
-      <c r="H149" s="3"/>
-      <c r="I149" s="4"/>
-    </row>
-    <row r="150" ht="15.75" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A150" s="1" t="s">
         <v>129</v>
       </c>
@@ -4998,7 +4543,7 @@
         <v>285</v>
       </c>
       <c r="C150" s="1">
-        <v>2021.0</v>
+        <v>2021</v>
       </c>
       <c r="D150" s="1" t="s">
         <v>14</v>
@@ -5007,13 +4552,10 @@
         <v>9</v>
       </c>
       <c r="F150" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="G150" s="3"/>
-      <c r="H150" s="3"/>
-      <c r="I150" s="4"/>
-    </row>
-    <row r="151" ht="15.75" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A151" s="1" t="s">
         <v>286</v>
       </c>
@@ -5021,7 +4563,7 @@
         <v>287</v>
       </c>
       <c r="C151" s="1">
-        <v>2021.0</v>
+        <v>2021</v>
       </c>
       <c r="D151" s="1" t="s">
         <v>8</v>
@@ -5030,13 +4572,10 @@
         <v>15</v>
       </c>
       <c r="F151" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="G151" s="3"/>
-      <c r="H151" s="3"/>
-      <c r="I151" s="4"/>
-    </row>
-    <row r="152" ht="15.75" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A152" s="1" t="s">
         <v>288</v>
       </c>
@@ -5044,7 +4583,7 @@
         <v>289</v>
       </c>
       <c r="C152" s="1">
-        <v>2021.0</v>
+        <v>2021</v>
       </c>
       <c r="D152" s="1" t="s">
         <v>8</v>
@@ -5053,13 +4592,10 @@
         <v>15</v>
       </c>
       <c r="F152" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="G152" s="3"/>
-      <c r="H152" s="3"/>
-      <c r="I152" s="4"/>
-    </row>
-    <row r="153" ht="15.75" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A153" s="1" t="s">
         <v>290</v>
       </c>
@@ -5067,7 +4603,7 @@
         <v>291</v>
       </c>
       <c r="C153" s="1">
-        <v>2021.0</v>
+        <v>2021</v>
       </c>
       <c r="D153" s="1" t="s">
         <v>14</v>
@@ -5076,13 +4612,10 @@
         <v>15</v>
       </c>
       <c r="F153" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="G153" s="3"/>
-      <c r="H153" s="3"/>
-      <c r="I153" s="4"/>
-    </row>
-    <row r="154" ht="15.75" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A154" s="1" t="s">
         <v>292</v>
       </c>
@@ -5090,7 +4623,7 @@
         <v>293</v>
       </c>
       <c r="C154" s="1">
-        <v>2021.0</v>
+        <v>2021</v>
       </c>
       <c r="D154" s="1" t="s">
         <v>8</v>
@@ -5099,13 +4632,10 @@
         <v>9</v>
       </c>
       <c r="F154" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="G154" s="3"/>
-      <c r="H154" s="3"/>
-      <c r="I154" s="4"/>
-    </row>
-    <row r="155" ht="15.75" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A155" s="1" t="s">
         <v>294</v>
       </c>
@@ -5113,7 +4643,7 @@
         <v>295</v>
       </c>
       <c r="C155" s="1">
-        <v>2021.0</v>
+        <v>2021</v>
       </c>
       <c r="D155" s="1" t="s">
         <v>8</v>
@@ -5122,13 +4652,10 @@
         <v>15</v>
       </c>
       <c r="F155" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="G155" s="3"/>
-      <c r="H155" s="3"/>
-      <c r="I155" s="4"/>
-    </row>
-    <row r="156" ht="15.75" customHeight="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A156" s="1" t="s">
         <v>296</v>
       </c>
@@ -5136,7 +4663,7 @@
         <v>297</v>
       </c>
       <c r="C156" s="1">
-        <v>2021.0</v>
+        <v>2021</v>
       </c>
       <c r="D156" s="1" t="s">
         <v>14</v>
@@ -5145,13 +4672,10 @@
         <v>15</v>
       </c>
       <c r="F156" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="G156" s="3"/>
-      <c r="H156" s="3"/>
-      <c r="I156" s="4"/>
-    </row>
-    <row r="157" ht="15.75" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A157" s="1" t="s">
         <v>298</v>
       </c>
@@ -5159,7 +4683,7 @@
         <v>299</v>
       </c>
       <c r="C157" s="1">
-        <v>2021.0</v>
+        <v>2021</v>
       </c>
       <c r="D157" s="1" t="s">
         <v>8</v>
@@ -5168,13 +4692,10 @@
         <v>15</v>
       </c>
       <c r="F157" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="G157" s="3"/>
-      <c r="H157" s="3"/>
-      <c r="I157" s="4"/>
-    </row>
-    <row r="158" ht="15.75" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A158" s="1" t="s">
         <v>300</v>
       </c>
@@ -5182,7 +4703,7 @@
         <v>301</v>
       </c>
       <c r="C158" s="1">
-        <v>2021.0</v>
+        <v>2021</v>
       </c>
       <c r="D158" s="1" t="s">
         <v>18</v>
@@ -5191,13 +4712,10 @@
         <v>15</v>
       </c>
       <c r="F158" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="G158" s="3"/>
-      <c r="H158" s="3"/>
-      <c r="I158" s="4"/>
-    </row>
-    <row r="159" ht="15.75" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A159" s="1" t="s">
         <v>302</v>
       </c>
@@ -5205,7 +4723,7 @@
         <v>303</v>
       </c>
       <c r="C159" s="1">
-        <v>2021.0</v>
+        <v>2021</v>
       </c>
       <c r="D159" s="1" t="s">
         <v>8</v>
@@ -5214,13 +4732,10 @@
         <v>15</v>
       </c>
       <c r="F159" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="G159" s="3"/>
-      <c r="H159" s="3"/>
-      <c r="I159" s="4"/>
-    </row>
-    <row r="160" ht="15.75" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A160" s="1" t="s">
         <v>304</v>
       </c>
@@ -5228,7 +4743,7 @@
         <v>305</v>
       </c>
       <c r="C160" s="1">
-        <v>2021.0</v>
+        <v>2021</v>
       </c>
       <c r="D160" s="1" t="s">
         <v>8</v>
@@ -5237,13 +4752,10 @@
         <v>9</v>
       </c>
       <c r="F160" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="G160" s="3"/>
-      <c r="H160" s="3"/>
-      <c r="I160" s="4"/>
-    </row>
-    <row r="161" ht="15.75" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A161" s="1" t="s">
         <v>306</v>
       </c>
@@ -5251,7 +4763,7 @@
         <v>307</v>
       </c>
       <c r="C161" s="1">
-        <v>2021.0</v>
+        <v>2021</v>
       </c>
       <c r="D161" s="1" t="s">
         <v>14</v>
@@ -5260,13 +4772,10 @@
         <v>15</v>
       </c>
       <c r="F161" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="G161" s="3"/>
-      <c r="H161" s="3"/>
-      <c r="I161" s="4"/>
-    </row>
-    <row r="162" ht="15.75" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A162" s="1" t="s">
         <v>308</v>
       </c>
@@ -5274,7 +4783,7 @@
         <v>309</v>
       </c>
       <c r="C162" s="1">
-        <v>2021.0</v>
+        <v>2021</v>
       </c>
       <c r="D162" s="1" t="s">
         <v>8</v>
@@ -5283,61 +4792,50 @@
         <v>15</v>
       </c>
       <c r="F162" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="G162" s="3"/>
-      <c r="H162" s="3"/>
-      <c r="I162" s="4"/>
-    </row>
-    <row r="163" ht="15.75" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A163" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="B163" s="5" t="s">
+      <c r="B163" s="3" t="s">
         <v>311</v>
       </c>
-      <c r="C163" s="5">
-        <v>2021.0</v>
-      </c>
-      <c r="D163" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="E163" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F163" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="G163" s="8"/>
-      <c r="H163" s="8"/>
-      <c r="I163" s="9"/>
-    </row>
-    <row r="164" ht="15.75" customHeight="1">
-      <c r="A164" s="5" t="s">
+      <c r="C163" s="3">
+        <v>2021</v>
+      </c>
+      <c r="D163" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E163" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F163" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A164" s="3" t="s">
         <v>312</v>
       </c>
-      <c r="B164" s="5" t="s">
+      <c r="B164" s="3" t="s">
         <v>313</v>
       </c>
-      <c r="C164" s="5">
-        <v>2021.0</v>
-      </c>
-      <c r="D164" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="E164" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F164" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="G164" s="7"/>
-      <c r="H164" s="8"/>
-      <c r="I164" s="9"/>
-      <c r="J164" s="10"/>
-      <c r="K164" s="10"/>
-    </row>
-    <row r="165" ht="15.75" customHeight="1">
+      <c r="C164" s="3">
+        <v>2021</v>
+      </c>
+      <c r="D164" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E164" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F164" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A165" s="1" t="s">
         <v>314</v>
       </c>
@@ -5345,7 +4843,7 @@
         <v>315</v>
       </c>
       <c r="C165" s="1">
-        <v>2021.0</v>
+        <v>2021</v>
       </c>
       <c r="D165" s="1" t="s">
         <v>14</v>
@@ -5354,13 +4852,10 @@
         <v>15</v>
       </c>
       <c r="F165" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="G165" s="3"/>
-      <c r="H165" s="3"/>
-      <c r="I165" s="4"/>
-    </row>
-    <row r="166" ht="15.75" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A166" s="1" t="s">
         <v>316</v>
       </c>
@@ -5368,7 +4863,7 @@
         <v>317</v>
       </c>
       <c r="C166" s="1">
-        <v>2021.0</v>
+        <v>2021</v>
       </c>
       <c r="D166" s="1" t="s">
         <v>18</v>
@@ -5377,13 +4872,10 @@
         <v>15</v>
       </c>
       <c r="F166" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="G166" s="3"/>
-      <c r="H166" s="3"/>
-      <c r="I166" s="4"/>
-    </row>
-    <row r="167" ht="15.75" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A167" s="1" t="s">
         <v>318</v>
       </c>
@@ -5391,7 +4883,7 @@
         <v>319</v>
       </c>
       <c r="C167" s="1">
-        <v>2021.0</v>
+        <v>2021</v>
       </c>
       <c r="D167" s="1" t="s">
         <v>14</v>
@@ -5400,38 +4892,30 @@
         <v>15</v>
       </c>
       <c r="F167" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="G167" s="3"/>
-      <c r="H167" s="3"/>
-      <c r="I167" s="4"/>
-    </row>
-    <row r="168" ht="15.75" customHeight="1">
-      <c r="A168" s="5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A168" s="3" t="s">
         <v>320</v>
       </c>
-      <c r="B168" s="5" t="s">
+      <c r="B168" s="3" t="s">
         <v>321</v>
       </c>
-      <c r="C168" s="5">
-        <v>2021.0</v>
-      </c>
-      <c r="D168" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="E168" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F168" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="G168" s="8"/>
-      <c r="H168" s="8"/>
-      <c r="I168" s="9"/>
-      <c r="J168" s="10"/>
-      <c r="K168" s="10"/>
-    </row>
-    <row r="169" ht="15.75" customHeight="1">
+      <c r="C168" s="3">
+        <v>2021</v>
+      </c>
+      <c r="D168" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E168" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F168" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A169" s="1" t="s">
         <v>320</v>
       </c>
@@ -5439,7 +4923,7 @@
         <v>322</v>
       </c>
       <c r="C169" s="1">
-        <v>2021.0</v>
+        <v>2021</v>
       </c>
       <c r="D169" s="1" t="s">
         <v>8</v>
@@ -5448,13 +4932,10 @@
         <v>15</v>
       </c>
       <c r="F169" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="G169" s="3"/>
-      <c r="H169" s="3"/>
-      <c r="I169" s="4"/>
-    </row>
-    <row r="170" ht="15.75" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A170" s="1" t="s">
         <v>323</v>
       </c>
@@ -5462,7 +4943,7 @@
         <v>324</v>
       </c>
       <c r="C170" s="1">
-        <v>2021.0</v>
+        <v>2021</v>
       </c>
       <c r="D170" s="1" t="s">
         <v>14</v>
@@ -5471,13 +4952,10 @@
         <v>15</v>
       </c>
       <c r="F170" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="G170" s="3"/>
-      <c r="H170" s="3"/>
-      <c r="I170" s="4"/>
-    </row>
-    <row r="171" ht="15.75" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A171" s="1" t="s">
         <v>325</v>
       </c>
@@ -5485,7 +4963,7 @@
         <v>326</v>
       </c>
       <c r="C171" s="1">
-        <v>2021.0</v>
+        <v>2021</v>
       </c>
       <c r="D171" s="1" t="s">
         <v>14</v>
@@ -5494,13 +4972,10 @@
         <v>15</v>
       </c>
       <c r="F171" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="G171" s="3"/>
-      <c r="H171" s="3"/>
-      <c r="I171" s="4"/>
-    </row>
-    <row r="172" ht="15.75" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A172" s="1" t="s">
         <v>152</v>
       </c>
@@ -5508,7 +4983,7 @@
         <v>327</v>
       </c>
       <c r="C172" s="1">
-        <v>2021.0</v>
+        <v>2021</v>
       </c>
       <c r="D172" s="1" t="s">
         <v>8</v>
@@ -5517,38 +4992,30 @@
         <v>15</v>
       </c>
       <c r="F172" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="G172" s="3"/>
-      <c r="H172" s="3"/>
-      <c r="I172" s="4"/>
-    </row>
-    <row r="173" ht="15.75" customHeight="1">
-      <c r="A173" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A173" s="3" t="s">
         <v>328</v>
       </c>
-      <c r="B173" s="5" t="s">
+      <c r="B173" s="3" t="s">
         <v>329</v>
       </c>
-      <c r="C173" s="5">
-        <v>2021.0</v>
-      </c>
-      <c r="D173" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="E173" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F173" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="G173" s="8"/>
-      <c r="H173" s="8"/>
-      <c r="I173" s="9"/>
-      <c r="J173" s="10"/>
-      <c r="K173" s="10"/>
-    </row>
-    <row r="174" ht="15.75" customHeight="1">
+      <c r="C173" s="3">
+        <v>2021</v>
+      </c>
+      <c r="D173" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E173" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F173" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A174" s="1" t="s">
         <v>330</v>
       </c>
@@ -5556,7 +5023,7 @@
         <v>331</v>
       </c>
       <c r="C174" s="1">
-        <v>2021.0</v>
+        <v>2021</v>
       </c>
       <c r="D174" s="1" t="s">
         <v>8</v>
@@ -5565,13 +5032,10 @@
         <v>15</v>
       </c>
       <c r="F174" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="G174" s="3"/>
-      <c r="H174" s="3"/>
-      <c r="I174" s="4"/>
-    </row>
-    <row r="175" ht="15.75" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A175" s="1" t="s">
         <v>332</v>
       </c>
@@ -5579,7 +5043,7 @@
         <v>333</v>
       </c>
       <c r="C175" s="1">
-        <v>2021.0</v>
+        <v>2021</v>
       </c>
       <c r="D175" s="1" t="s">
         <v>8</v>
@@ -5588,13 +5052,10 @@
         <v>15</v>
       </c>
       <c r="F175" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="G175" s="3"/>
-      <c r="H175" s="3"/>
-      <c r="I175" s="4"/>
-    </row>
-    <row r="176" ht="15.75" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A176" s="1" t="s">
         <v>334</v>
       </c>
@@ -5602,7 +5063,7 @@
         <v>335</v>
       </c>
       <c r="C176" s="1">
-        <v>2021.0</v>
+        <v>2021</v>
       </c>
       <c r="D176" s="1" t="s">
         <v>14</v>
@@ -5611,63 +5072,50 @@
         <v>15</v>
       </c>
       <c r="F176" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="G176" s="3"/>
-      <c r="H176" s="3"/>
-      <c r="I176" s="4"/>
-    </row>
-    <row r="177" ht="15.75" customHeight="1">
-      <c r="A177" s="5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A177" s="3" t="s">
         <v>336</v>
       </c>
-      <c r="B177" s="5" t="s">
+      <c r="B177" s="3" t="s">
         <v>337</v>
       </c>
-      <c r="C177" s="5">
-        <v>2021.0</v>
-      </c>
-      <c r="D177" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="E177" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F177" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="G177" s="8"/>
-      <c r="H177" s="8"/>
-      <c r="I177" s="9"/>
-      <c r="J177" s="10"/>
-      <c r="K177" s="10"/>
-    </row>
-    <row r="178" ht="15.75" customHeight="1">
-      <c r="A178" s="5" t="s">
+      <c r="C177" s="3">
+        <v>2021</v>
+      </c>
+      <c r="D177" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E177" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F177" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A178" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="B178" s="5" t="s">
+      <c r="B178" s="3" t="s">
         <v>338</v>
       </c>
-      <c r="C178" s="5">
-        <v>2021.0</v>
-      </c>
-      <c r="D178" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="E178" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F178" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="G178" s="7"/>
-      <c r="H178" s="8"/>
-      <c r="I178" s="9"/>
-      <c r="J178" s="10"/>
-      <c r="K178" s="10"/>
-    </row>
-    <row r="179" ht="15.75" customHeight="1">
+      <c r="C178" s="3">
+        <v>2021</v>
+      </c>
+      <c r="D178" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E178" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F178" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A179" s="1" t="s">
         <v>339</v>
       </c>
@@ -5675,7 +5123,7 @@
         <v>340</v>
       </c>
       <c r="C179" s="1">
-        <v>2021.0</v>
+        <v>2021</v>
       </c>
       <c r="D179" s="1" t="s">
         <v>14</v>
@@ -5684,13 +5132,10 @@
         <v>15</v>
       </c>
       <c r="F179" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="G179" s="3"/>
-      <c r="H179" s="3"/>
-      <c r="I179" s="4"/>
-    </row>
-    <row r="180" ht="15.75" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A180" s="1" t="s">
         <v>341</v>
       </c>
@@ -5698,7 +5143,7 @@
         <v>342</v>
       </c>
       <c r="C180" s="1">
-        <v>2021.0</v>
+        <v>2021</v>
       </c>
       <c r="D180" s="1" t="s">
         <v>14</v>
@@ -5707,13 +5152,10 @@
         <v>15</v>
       </c>
       <c r="F180" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="G180" s="3"/>
-      <c r="H180" s="3"/>
-      <c r="I180" s="4"/>
-    </row>
-    <row r="181" ht="15.75" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A181" s="1" t="s">
         <v>343</v>
       </c>
@@ -5721,7 +5163,7 @@
         <v>344</v>
       </c>
       <c r="C181" s="1">
-        <v>2021.0</v>
+        <v>2021</v>
       </c>
       <c r="D181" s="1" t="s">
         <v>18</v>
@@ -5730,13 +5172,10 @@
         <v>9</v>
       </c>
       <c r="F181" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="G181" s="3"/>
-      <c r="H181" s="3"/>
-      <c r="I181" s="4"/>
-    </row>
-    <row r="182" ht="15.75" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A182" s="1" t="s">
         <v>343</v>
       </c>
@@ -5744,7 +5183,7 @@
         <v>345</v>
       </c>
       <c r="C182" s="1">
-        <v>2021.0</v>
+        <v>2021</v>
       </c>
       <c r="D182" s="1" t="s">
         <v>18</v>
@@ -5753,13 +5192,10 @@
         <v>15</v>
       </c>
       <c r="F182" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="G182" s="3"/>
-      <c r="H182" s="3"/>
-      <c r="I182" s="4"/>
-    </row>
-    <row r="183" ht="15.75" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A183" s="1" t="s">
         <v>346</v>
       </c>
@@ -5767,7 +5203,7 @@
         <v>347</v>
       </c>
       <c r="C183" s="1">
-        <v>2021.0</v>
+        <v>2021</v>
       </c>
       <c r="D183" s="1" t="s">
         <v>14</v>
@@ -5776,13 +5212,10 @@
         <v>15</v>
       </c>
       <c r="F183" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="G183" s="3"/>
-      <c r="H183" s="3"/>
-      <c r="I183" s="4"/>
-    </row>
-    <row r="184" ht="15.75" customHeight="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A184" s="1" t="s">
         <v>346</v>
       </c>
@@ -5790,7 +5223,7 @@
         <v>348</v>
       </c>
       <c r="C184" s="1">
-        <v>2021.0</v>
+        <v>2021</v>
       </c>
       <c r="D184" s="1" t="s">
         <v>8</v>
@@ -5799,13 +5232,10 @@
         <v>15</v>
       </c>
       <c r="F184" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="G184" s="3"/>
-      <c r="H184" s="3"/>
-      <c r="I184" s="4"/>
-    </row>
-    <row r="185" ht="15.75" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A185" s="1" t="s">
         <v>349</v>
       </c>
@@ -5813,7 +5243,7 @@
         <v>350</v>
       </c>
       <c r="C185" s="1">
-        <v>2021.0</v>
+        <v>2021</v>
       </c>
       <c r="D185" s="1" t="s">
         <v>14</v>
@@ -5822,13 +5252,10 @@
         <v>15</v>
       </c>
       <c r="F185" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="G185" s="3"/>
-      <c r="H185" s="3"/>
-      <c r="I185" s="4"/>
-    </row>
-    <row r="186" ht="15.75" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A186" s="1" t="s">
         <v>351</v>
       </c>
@@ -5836,7 +5263,7 @@
         <v>352</v>
       </c>
       <c r="C186" s="1">
-        <v>2021.0</v>
+        <v>2021</v>
       </c>
       <c r="D186" s="1" t="s">
         <v>8</v>
@@ -5845,13 +5272,10 @@
         <v>15</v>
       </c>
       <c r="F186" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="G186" s="3"/>
-      <c r="H186" s="3"/>
-      <c r="I186" s="4"/>
-    </row>
-    <row r="187" ht="15.75" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A187" s="1" t="s">
         <v>181</v>
       </c>
@@ -5859,7 +5283,7 @@
         <v>353</v>
       </c>
       <c r="C187" s="1">
-        <v>2021.0</v>
+        <v>2021</v>
       </c>
       <c r="D187" s="1" t="s">
         <v>18</v>
@@ -5868,13 +5292,10 @@
         <v>15</v>
       </c>
       <c r="F187" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="G187" s="3"/>
-      <c r="H187" s="3"/>
-      <c r="I187" s="4"/>
-    </row>
-    <row r="188" ht="15.75" customHeight="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A188" s="1" t="s">
         <v>354</v>
       </c>
@@ -5882,7 +5303,7 @@
         <v>355</v>
       </c>
       <c r="C188" s="1">
-        <v>2021.0</v>
+        <v>2021</v>
       </c>
       <c r="D188" s="1" t="s">
         <v>8</v>
@@ -5891,13 +5312,10 @@
         <v>15</v>
       </c>
       <c r="F188" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="G188" s="3"/>
-      <c r="H188" s="3"/>
-      <c r="I188" s="4"/>
-    </row>
-    <row r="189" ht="15.75" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A189" s="1" t="s">
         <v>354</v>
       </c>
@@ -5905,7 +5323,7 @@
         <v>356</v>
       </c>
       <c r="C189" s="1">
-        <v>2021.0</v>
+        <v>2021</v>
       </c>
       <c r="D189" s="1" t="s">
         <v>8</v>
@@ -5914,13 +5332,10 @@
         <v>15</v>
       </c>
       <c r="F189" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="G189" s="3"/>
-      <c r="H189" s="3"/>
-      <c r="I189" s="4"/>
-    </row>
-    <row r="190" ht="15.75" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A190" s="1" t="s">
         <v>357</v>
       </c>
@@ -5928,7 +5343,7 @@
         <v>358</v>
       </c>
       <c r="C190" s="1">
-        <v>2021.0</v>
+        <v>2021</v>
       </c>
       <c r="D190" s="1" t="s">
         <v>8</v>
@@ -5937,13 +5352,10 @@
         <v>15</v>
       </c>
       <c r="F190" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="G190" s="3"/>
-      <c r="H190" s="3"/>
-      <c r="I190" s="4"/>
-    </row>
-    <row r="191" ht="15.75" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A191" s="1" t="s">
         <v>357</v>
       </c>
@@ -5951,7 +5363,7 @@
         <v>359</v>
       </c>
       <c r="C191" s="1">
-        <v>2021.0</v>
+        <v>2021</v>
       </c>
       <c r="D191" s="1" t="s">
         <v>8</v>
@@ -5960,13 +5372,10 @@
         <v>15</v>
       </c>
       <c r="F191" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="G191" s="3"/>
-      <c r="H191" s="3"/>
-      <c r="I191" s="4"/>
-    </row>
-    <row r="192" ht="15.75" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A192" s="1" t="s">
         <v>360</v>
       </c>
@@ -5974,7 +5383,7 @@
         <v>361</v>
       </c>
       <c r="C192" s="1">
-        <v>2021.0</v>
+        <v>2021</v>
       </c>
       <c r="D192" s="1" t="s">
         <v>8</v>
@@ -5983,13 +5392,10 @@
         <v>15</v>
       </c>
       <c r="F192" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="G192" s="3"/>
-      <c r="H192" s="3"/>
-      <c r="I192" s="4"/>
-    </row>
-    <row r="193" ht="15.75" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A193" s="1" t="s">
         <v>183</v>
       </c>
@@ -5997,7 +5403,7 @@
         <v>362</v>
       </c>
       <c r="C193" s="1">
-        <v>2021.0</v>
+        <v>2021</v>
       </c>
       <c r="D193" s="1" t="s">
         <v>8</v>
@@ -6006,13 +5412,10 @@
         <v>15</v>
       </c>
       <c r="F193" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="G193" s="3"/>
-      <c r="H193" s="3"/>
-      <c r="I193" s="4"/>
-    </row>
-    <row r="194" ht="15.75" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A194" s="1" t="s">
         <v>183</v>
       </c>
@@ -6020,7 +5423,7 @@
         <v>363</v>
       </c>
       <c r="C194" s="1">
-        <v>2021.0</v>
+        <v>2021</v>
       </c>
       <c r="D194" s="1" t="s">
         <v>8</v>
@@ -6029,13 +5432,10 @@
         <v>15</v>
       </c>
       <c r="F194" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="G194" s="3"/>
-      <c r="H194" s="3"/>
-      <c r="I194" s="4"/>
-    </row>
-    <row r="195" ht="15.75" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A195" s="1" t="s">
         <v>185</v>
       </c>
@@ -6043,7 +5443,7 @@
         <v>364</v>
       </c>
       <c r="C195" s="1">
-        <v>2021.0</v>
+        <v>2021</v>
       </c>
       <c r="D195" s="1" t="s">
         <v>8</v>
@@ -6052,13 +5452,10 @@
         <v>15</v>
       </c>
       <c r="F195" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="G195" s="3"/>
-      <c r="H195" s="3"/>
-      <c r="I195" s="4"/>
-    </row>
-    <row r="196" ht="15.75" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A196" s="1" t="s">
         <v>365</v>
       </c>
@@ -6066,7 +5463,7 @@
         <v>366</v>
       </c>
       <c r="C196" s="1">
-        <v>2021.0</v>
+        <v>2021</v>
       </c>
       <c r="D196" s="1" t="s">
         <v>18</v>
@@ -6075,13 +5472,10 @@
         <v>15</v>
       </c>
       <c r="F196" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="G196" s="3"/>
-      <c r="H196" s="3"/>
-      <c r="I196" s="4"/>
-    </row>
-    <row r="197" ht="15.75" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A197" s="1" t="s">
         <v>367</v>
       </c>
@@ -6089,7 +5483,7 @@
         <v>368</v>
       </c>
       <c r="C197" s="1">
-        <v>2021.0</v>
+        <v>2021</v>
       </c>
       <c r="D197" s="1" t="s">
         <v>14</v>
@@ -6098,13 +5492,10 @@
         <v>15</v>
       </c>
       <c r="F197" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="G197" s="3"/>
-      <c r="H197" s="3"/>
-      <c r="I197" s="4"/>
-    </row>
-    <row r="198" ht="15.75" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A198" s="1" t="s">
         <v>367</v>
       </c>
@@ -6112,7 +5503,7 @@
         <v>369</v>
       </c>
       <c r="C198" s="1">
-        <v>2021.0</v>
+        <v>2021</v>
       </c>
       <c r="D198" s="1" t="s">
         <v>8</v>
@@ -6121,13 +5512,10 @@
         <v>15</v>
       </c>
       <c r="F198" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="G198" s="3"/>
-      <c r="H198" s="3"/>
-      <c r="I198" s="4"/>
-    </row>
-    <row r="199" ht="15.75" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A199" s="1" t="s">
         <v>367</v>
       </c>
@@ -6135,7 +5523,7 @@
         <v>370</v>
       </c>
       <c r="C199" s="1">
-        <v>2021.0</v>
+        <v>2021</v>
       </c>
       <c r="D199" s="1" t="s">
         <v>8</v>
@@ -6144,13 +5532,10 @@
         <v>15</v>
       </c>
       <c r="F199" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="G199" s="3"/>
-      <c r="H199" s="3"/>
-      <c r="I199" s="4"/>
-    </row>
-    <row r="200" ht="15.75" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A200" s="1" t="s">
         <v>371</v>
       </c>
@@ -6158,7 +5543,7 @@
         <v>372</v>
       </c>
       <c r="C200" s="1">
-        <v>2021.0</v>
+        <v>2021</v>
       </c>
       <c r="D200" s="1" t="s">
         <v>14</v>
@@ -6167,13 +5552,10 @@
         <v>15</v>
       </c>
       <c r="F200" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="G200" s="3"/>
-      <c r="H200" s="3"/>
-      <c r="I200" s="4"/>
-    </row>
-    <row r="201" ht="15.75" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A201" s="1" t="s">
         <v>373</v>
       </c>
@@ -6181,7 +5563,7 @@
         <v>374</v>
       </c>
       <c r="C201" s="1">
-        <v>2021.0</v>
+        <v>2021</v>
       </c>
       <c r="D201" s="1" t="s">
         <v>14</v>
@@ -6190,13 +5572,10 @@
         <v>15</v>
       </c>
       <c r="F201" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="G201" s="3"/>
-      <c r="H201" s="3"/>
-      <c r="I201" s="4"/>
-    </row>
-    <row r="202" ht="15.75" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A202" s="1" t="s">
         <v>373</v>
       </c>
@@ -6204,7 +5583,7 @@
         <v>375</v>
       </c>
       <c r="C202" s="1">
-        <v>2021.0</v>
+        <v>2021</v>
       </c>
       <c r="D202" s="1" t="s">
         <v>8</v>
@@ -6213,21 +5592,18 @@
         <v>15</v>
       </c>
       <c r="F202" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="G202" s="3"/>
-      <c r="H202" s="3"/>
-      <c r="I202" s="4"/>
-    </row>
-    <row r="203" ht="15.75" customHeight="1">
-      <c r="A203" s="5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A203" s="3" t="s">
         <v>376</v>
       </c>
       <c r="B203" s="1" t="s">
         <v>377</v>
       </c>
       <c r="C203" s="1">
-        <v>2022.0</v>
+        <v>2022</v>
       </c>
       <c r="D203" s="1" t="s">
         <v>14</v>
@@ -6236,13 +5612,10 @@
         <v>15</v>
       </c>
       <c r="F203" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="G203" s="3"/>
-      <c r="H203" s="3"/>
-      <c r="I203" s="4"/>
-    </row>
-    <row r="204" ht="15.75" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A204" s="1" t="s">
         <v>378</v>
       </c>
@@ -6250,7 +5623,7 @@
         <v>379</v>
       </c>
       <c r="C204" s="1">
-        <v>2022.0</v>
+        <v>2022</v>
       </c>
       <c r="D204" s="1" t="s">
         <v>8</v>
@@ -6259,13 +5632,10 @@
         <v>15</v>
       </c>
       <c r="F204" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="G204" s="3"/>
-      <c r="H204" s="3"/>
-      <c r="I204" s="4"/>
-    </row>
-    <row r="205" ht="15.75" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A205" s="1" t="s">
         <v>380</v>
       </c>
@@ -6273,7 +5643,7 @@
         <v>381</v>
       </c>
       <c r="C205" s="1">
-        <v>2022.0</v>
+        <v>2022</v>
       </c>
       <c r="D205" s="1" t="s">
         <v>8</v>
@@ -6282,13 +5652,10 @@
         <v>15</v>
       </c>
       <c r="F205" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="G205" s="3"/>
-      <c r="H205" s="3"/>
-      <c r="I205" s="4"/>
-    </row>
-    <row r="206" ht="15.75" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A206" s="1" t="s">
         <v>382</v>
       </c>
@@ -6296,7 +5663,7 @@
         <v>383</v>
       </c>
       <c r="C206" s="1">
-        <v>2022.0</v>
+        <v>2022</v>
       </c>
       <c r="D206" s="1" t="s">
         <v>8</v>
@@ -6305,13 +5672,10 @@
         <v>15</v>
       </c>
       <c r="F206" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="G206" s="3"/>
-      <c r="H206" s="3"/>
-      <c r="I206" s="4"/>
-    </row>
-    <row r="207" ht="15.75" customHeight="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="207" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A207" s="1" t="s">
         <v>10</v>
       </c>
@@ -6319,7 +5683,7 @@
         <v>384</v>
       </c>
       <c r="C207" s="1">
-        <v>2022.0</v>
+        <v>2022</v>
       </c>
       <c r="D207" s="1" t="s">
         <v>8</v>
@@ -6328,13 +5692,10 @@
         <v>9</v>
       </c>
       <c r="F207" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="G207" s="3"/>
-      <c r="H207" s="3"/>
-      <c r="I207" s="4"/>
-    </row>
-    <row r="208" ht="15.75" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A208" s="1" t="s">
         <v>385</v>
       </c>
@@ -6342,7 +5703,7 @@
         <v>386</v>
       </c>
       <c r="C208" s="1">
-        <v>2022.0</v>
+        <v>2022</v>
       </c>
       <c r="D208" s="1" t="s">
         <v>8</v>
@@ -6351,13 +5712,10 @@
         <v>15</v>
       </c>
       <c r="F208" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="G208" s="3"/>
-      <c r="H208" s="3"/>
-      <c r="I208" s="4"/>
-    </row>
-    <row r="209" ht="15.75" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A209" s="1" t="s">
         <v>387</v>
       </c>
@@ -6365,7 +5723,7 @@
         <v>388</v>
       </c>
       <c r="C209" s="1">
-        <v>2022.0</v>
+        <v>2022</v>
       </c>
       <c r="D209" s="1" t="s">
         <v>8</v>
@@ -6374,13 +5732,10 @@
         <v>15</v>
       </c>
       <c r="F209" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="G209" s="3"/>
-      <c r="H209" s="3"/>
-      <c r="I209" s="4"/>
-    </row>
-    <row r="210" ht="15.75" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A210" s="1" t="s">
         <v>389</v>
       </c>
@@ -6388,7 +5743,7 @@
         <v>390</v>
       </c>
       <c r="C210" s="1">
-        <v>2022.0</v>
+        <v>2022</v>
       </c>
       <c r="D210" s="1" t="s">
         <v>14</v>
@@ -6397,13 +5752,10 @@
         <v>15</v>
       </c>
       <c r="F210" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="G210" s="3"/>
-      <c r="H210" s="3"/>
-      <c r="I210" s="4"/>
-    </row>
-    <row r="211" ht="15.75" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A211" s="1" t="s">
         <v>391</v>
       </c>
@@ -6411,7 +5763,7 @@
         <v>392</v>
       </c>
       <c r="C211" s="1">
-        <v>2022.0</v>
+        <v>2022</v>
       </c>
       <c r="D211" s="1" t="s">
         <v>8</v>
@@ -6420,13 +5772,10 @@
         <v>15</v>
       </c>
       <c r="F211" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="G211" s="3"/>
-      <c r="H211" s="3"/>
-      <c r="I211" s="4"/>
-    </row>
-    <row r="212" ht="15.75" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A212" s="1" t="s">
         <v>214</v>
       </c>
@@ -6434,7 +5783,7 @@
         <v>393</v>
       </c>
       <c r="C212" s="1">
-        <v>2022.0</v>
+        <v>2022</v>
       </c>
       <c r="D212" s="1" t="s">
         <v>8</v>
@@ -6443,13 +5792,10 @@
         <v>15</v>
       </c>
       <c r="F212" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="G212" s="3"/>
-      <c r="H212" s="3"/>
-      <c r="I212" s="4"/>
-    </row>
-    <row r="213" ht="15.75" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A213" s="1" t="s">
         <v>394</v>
       </c>
@@ -6457,7 +5803,7 @@
         <v>395</v>
       </c>
       <c r="C213" s="1">
-        <v>2022.0</v>
+        <v>2022</v>
       </c>
       <c r="D213" s="1" t="s">
         <v>8</v>
@@ -6466,13 +5812,10 @@
         <v>15</v>
       </c>
       <c r="F213" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="G213" s="3"/>
-      <c r="H213" s="3"/>
-      <c r="I213" s="4"/>
-    </row>
-    <row r="214" ht="15.75" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A214" s="1" t="s">
         <v>396</v>
       </c>
@@ -6480,7 +5823,7 @@
         <v>397</v>
       </c>
       <c r="C214" s="1">
-        <v>2022.0</v>
+        <v>2022</v>
       </c>
       <c r="D214" s="1" t="s">
         <v>18</v>
@@ -6489,13 +5832,10 @@
         <v>15</v>
       </c>
       <c r="F214" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="G214" s="3"/>
-      <c r="H214" s="3"/>
-      <c r="I214" s="4"/>
-    </row>
-    <row r="215" ht="15.75" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="215" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A215" s="1" t="s">
         <v>41</v>
       </c>
@@ -6503,7 +5843,7 @@
         <v>398</v>
       </c>
       <c r="C215" s="1">
-        <v>2022.0</v>
+        <v>2022</v>
       </c>
       <c r="D215" s="1" t="s">
         <v>14</v>
@@ -6512,13 +5852,10 @@
         <v>15</v>
       </c>
       <c r="F215" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="G215" s="3"/>
-      <c r="H215" s="3"/>
-      <c r="I215" s="4"/>
-    </row>
-    <row r="216" ht="15.75" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A216" s="1" t="s">
         <v>47</v>
       </c>
@@ -6526,7 +5863,7 @@
         <v>399</v>
       </c>
       <c r="C216" s="1">
-        <v>2022.0</v>
+        <v>2022</v>
       </c>
       <c r="D216" s="1" t="s">
         <v>14</v>
@@ -6535,13 +5872,10 @@
         <v>15</v>
       </c>
       <c r="F216" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="G216" s="3"/>
-      <c r="H216" s="3"/>
-      <c r="I216" s="4"/>
-    </row>
-    <row r="217" ht="15.75" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="217" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A217" s="1" t="s">
         <v>49</v>
       </c>
@@ -6549,7 +5883,7 @@
         <v>400</v>
       </c>
       <c r="C217" s="1">
-        <v>2022.0</v>
+        <v>2022</v>
       </c>
       <c r="D217" s="1" t="s">
         <v>14</v>
@@ -6558,13 +5892,10 @@
         <v>15</v>
       </c>
       <c r="F217" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="G217" s="3"/>
-      <c r="H217" s="3"/>
-      <c r="I217" s="4"/>
-    </row>
-    <row r="218" ht="15.75" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A218" s="1" t="s">
         <v>51</v>
       </c>
@@ -6572,7 +5903,7 @@
         <v>401</v>
       </c>
       <c r="C218" s="1">
-        <v>2022.0</v>
+        <v>2022</v>
       </c>
       <c r="D218" s="1" t="s">
         <v>14</v>
@@ -6581,13 +5912,10 @@
         <v>15</v>
       </c>
       <c r="F218" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="G218" s="3"/>
-      <c r="H218" s="3"/>
-      <c r="I218" s="4"/>
-    </row>
-    <row r="219" ht="15.75" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A219" s="1" t="s">
         <v>402</v>
       </c>
@@ -6595,7 +5923,7 @@
         <v>403</v>
       </c>
       <c r="C219" s="1">
-        <v>2022.0</v>
+        <v>2022</v>
       </c>
       <c r="D219" s="1" t="s">
         <v>14</v>
@@ -6604,13 +5932,10 @@
         <v>15</v>
       </c>
       <c r="F219" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="G219" s="3"/>
-      <c r="H219" s="3"/>
-      <c r="I219" s="4"/>
-    </row>
-    <row r="220" ht="15.75" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A220" s="1" t="s">
         <v>74</v>
       </c>
@@ -6618,7 +5943,7 @@
         <v>404</v>
       </c>
       <c r="C220" s="1">
-        <v>2022.0</v>
+        <v>2022</v>
       </c>
       <c r="D220" s="1" t="s">
         <v>18</v>
@@ -6627,13 +5952,10 @@
         <v>15</v>
       </c>
       <c r="F220" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="G220" s="3"/>
-      <c r="H220" s="3"/>
-      <c r="I220" s="4"/>
-    </row>
-    <row r="221" ht="15.75" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A221" s="1" t="s">
         <v>80</v>
       </c>
@@ -6641,7 +5963,7 @@
         <v>405</v>
       </c>
       <c r="C221" s="1">
-        <v>2022.0</v>
+        <v>2022</v>
       </c>
       <c r="D221" s="1" t="s">
         <v>8</v>
@@ -6650,13 +5972,10 @@
         <v>15</v>
       </c>
       <c r="F221" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="G221" s="3"/>
-      <c r="H221" s="3"/>
-      <c r="I221" s="4"/>
-    </row>
-    <row r="222" ht="15.75" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A222" s="1" t="s">
         <v>406</v>
       </c>
@@ -6664,7 +5983,7 @@
         <v>407</v>
       </c>
       <c r="C222" s="1">
-        <v>2022.0</v>
+        <v>2022</v>
       </c>
       <c r="D222" s="1" t="s">
         <v>14</v>
@@ -6673,13 +5992,10 @@
         <v>15</v>
       </c>
       <c r="F222" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="G222" s="3"/>
-      <c r="H222" s="3"/>
-      <c r="I222" s="4"/>
-    </row>
-    <row r="223" ht="15.75" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A223" s="1" t="s">
         <v>408</v>
       </c>
@@ -6687,7 +6003,7 @@
         <v>409</v>
       </c>
       <c r="C223" s="1">
-        <v>2022.0</v>
+        <v>2022</v>
       </c>
       <c r="D223" s="1" t="s">
         <v>8</v>
@@ -6696,793 +6012,788 @@
         <v>15</v>
       </c>
       <c r="F223" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="G223" s="3"/>
-      <c r="H223" s="3"/>
-      <c r="I223" s="4"/>
-    </row>
-    <row r="224" ht="15.75" customHeight="1"/>
-    <row r="225" ht="15.75" customHeight="1"/>
-    <row r="226" ht="15.75" customHeight="1"/>
-    <row r="227" ht="15.75" customHeight="1"/>
-    <row r="228" ht="15.75" customHeight="1"/>
-    <row r="229" ht="15.75" customHeight="1"/>
-    <row r="230" ht="15.75" customHeight="1"/>
-    <row r="231" ht="15.75" customHeight="1"/>
-    <row r="232" ht="15.75" customHeight="1"/>
-    <row r="233" ht="15.75" customHeight="1"/>
-    <row r="234" ht="15.75" customHeight="1"/>
-    <row r="235" ht="15.75" customHeight="1"/>
-    <row r="236" ht="15.75" customHeight="1"/>
-    <row r="237" ht="15.75" customHeight="1"/>
-    <row r="238" ht="15.75" customHeight="1"/>
-    <row r="239" ht="15.75" customHeight="1"/>
-    <row r="240" ht="15.75" customHeight="1"/>
-    <row r="241" ht="15.75" customHeight="1"/>
-    <row r="242" ht="15.75" customHeight="1"/>
-    <row r="243" ht="15.75" customHeight="1"/>
-    <row r="244" ht="15.75" customHeight="1"/>
-    <row r="245" ht="15.75" customHeight="1"/>
-    <row r="246" ht="15.75" customHeight="1"/>
-    <row r="247" ht="15.75" customHeight="1"/>
-    <row r="248" ht="15.75" customHeight="1"/>
-    <row r="249" ht="15.75" customHeight="1"/>
-    <row r="250" ht="15.75" customHeight="1"/>
-    <row r="251" ht="15.75" customHeight="1"/>
-    <row r="252" ht="15.75" customHeight="1"/>
-    <row r="253" ht="15.75" customHeight="1"/>
-    <row r="254" ht="15.75" customHeight="1"/>
-    <row r="255" ht="15.75" customHeight="1"/>
-    <row r="256" ht="15.75" customHeight="1"/>
-    <row r="257" ht="15.75" customHeight="1"/>
-    <row r="258" ht="15.75" customHeight="1"/>
-    <row r="259" ht="15.75" customHeight="1"/>
-    <row r="260" ht="15.75" customHeight="1"/>
-    <row r="261" ht="15.75" customHeight="1"/>
-    <row r="262" ht="15.75" customHeight="1"/>
-    <row r="263" ht="15.75" customHeight="1"/>
-    <row r="264" ht="15.75" customHeight="1"/>
-    <row r="265" ht="15.75" customHeight="1"/>
-    <row r="266" ht="15.75" customHeight="1"/>
-    <row r="267" ht="15.75" customHeight="1"/>
-    <row r="268" ht="15.75" customHeight="1"/>
-    <row r="269" ht="15.75" customHeight="1"/>
-    <row r="270" ht="15.75" customHeight="1"/>
-    <row r="271" ht="15.75" customHeight="1"/>
-    <row r="272" ht="15.75" customHeight="1"/>
-    <row r="273" ht="15.75" customHeight="1"/>
-    <row r="274" ht="15.75" customHeight="1"/>
-    <row r="275" ht="15.75" customHeight="1"/>
-    <row r="276" ht="15.75" customHeight="1"/>
-    <row r="277" ht="15.75" customHeight="1"/>
-    <row r="278" ht="15.75" customHeight="1"/>
-    <row r="279" ht="15.75" customHeight="1"/>
-    <row r="280" ht="15.75" customHeight="1"/>
-    <row r="281" ht="15.75" customHeight="1"/>
-    <row r="282" ht="15.75" customHeight="1"/>
-    <row r="283" ht="15.75" customHeight="1"/>
-    <row r="284" ht="15.75" customHeight="1"/>
-    <row r="285" ht="15.75" customHeight="1"/>
-    <row r="286" ht="15.75" customHeight="1"/>
-    <row r="287" ht="15.75" customHeight="1"/>
-    <row r="288" ht="15.75" customHeight="1"/>
-    <row r="289" ht="15.75" customHeight="1"/>
-    <row r="290" ht="15.75" customHeight="1"/>
-    <row r="291" ht="15.75" customHeight="1"/>
-    <row r="292" ht="15.75" customHeight="1"/>
-    <row r="293" ht="15.75" customHeight="1"/>
-    <row r="294" ht="15.75" customHeight="1"/>
-    <row r="295" ht="15.75" customHeight="1"/>
-    <row r="296" ht="15.75" customHeight="1"/>
-    <row r="297" ht="15.75" customHeight="1"/>
-    <row r="298" ht="15.75" customHeight="1"/>
-    <row r="299" ht="15.75" customHeight="1"/>
-    <row r="300" ht="15.75" customHeight="1"/>
-    <row r="301" ht="15.75" customHeight="1"/>
-    <row r="302" ht="15.75" customHeight="1"/>
-    <row r="303" ht="15.75" customHeight="1"/>
-    <row r="304" ht="15.75" customHeight="1"/>
-    <row r="305" ht="15.75" customHeight="1"/>
-    <row r="306" ht="15.75" customHeight="1"/>
-    <row r="307" ht="15.75" customHeight="1"/>
-    <row r="308" ht="15.75" customHeight="1"/>
-    <row r="309" ht="15.75" customHeight="1"/>
-    <row r="310" ht="15.75" customHeight="1"/>
-    <row r="311" ht="15.75" customHeight="1"/>
-    <row r="312" ht="15.75" customHeight="1"/>
-    <row r="313" ht="15.75" customHeight="1"/>
-    <row r="314" ht="15.75" customHeight="1"/>
-    <row r="315" ht="15.75" customHeight="1"/>
-    <row r="316" ht="15.75" customHeight="1"/>
-    <row r="317" ht="15.75" customHeight="1"/>
-    <row r="318" ht="15.75" customHeight="1"/>
-    <row r="319" ht="15.75" customHeight="1"/>
-    <row r="320" ht="15.75" customHeight="1"/>
-    <row r="321" ht="15.75" customHeight="1"/>
-    <row r="322" ht="15.75" customHeight="1"/>
-    <row r="323" ht="15.75" customHeight="1"/>
-    <row r="324" ht="15.75" customHeight="1"/>
-    <row r="325" ht="15.75" customHeight="1"/>
-    <row r="326" ht="15.75" customHeight="1"/>
-    <row r="327" ht="15.75" customHeight="1"/>
-    <row r="328" ht="15.75" customHeight="1"/>
-    <row r="329" ht="15.75" customHeight="1"/>
-    <row r="330" ht="15.75" customHeight="1"/>
-    <row r="331" ht="15.75" customHeight="1"/>
-    <row r="332" ht="15.75" customHeight="1"/>
-    <row r="333" ht="15.75" customHeight="1"/>
-    <row r="334" ht="15.75" customHeight="1"/>
-    <row r="335" ht="15.75" customHeight="1"/>
-    <row r="336" ht="15.75" customHeight="1"/>
-    <row r="337" ht="15.75" customHeight="1"/>
-    <row r="338" ht="15.75" customHeight="1"/>
-    <row r="339" ht="15.75" customHeight="1"/>
-    <row r="340" ht="15.75" customHeight="1"/>
-    <row r="341" ht="15.75" customHeight="1"/>
-    <row r="342" ht="15.75" customHeight="1"/>
-    <row r="343" ht="15.75" customHeight="1"/>
-    <row r="344" ht="15.75" customHeight="1"/>
-    <row r="345" ht="15.75" customHeight="1"/>
-    <row r="346" ht="15.75" customHeight="1"/>
-    <row r="347" ht="15.75" customHeight="1"/>
-    <row r="348" ht="15.75" customHeight="1"/>
-    <row r="349" ht="15.75" customHeight="1"/>
-    <row r="350" ht="15.75" customHeight="1"/>
-    <row r="351" ht="15.75" customHeight="1"/>
-    <row r="352" ht="15.75" customHeight="1"/>
-    <row r="353" ht="15.75" customHeight="1"/>
-    <row r="354" ht="15.75" customHeight="1"/>
-    <row r="355" ht="15.75" customHeight="1"/>
-    <row r="356" ht="15.75" customHeight="1"/>
-    <row r="357" ht="15.75" customHeight="1"/>
-    <row r="358" ht="15.75" customHeight="1"/>
-    <row r="359" ht="15.75" customHeight="1"/>
-    <row r="360" ht="15.75" customHeight="1"/>
-    <row r="361" ht="15.75" customHeight="1"/>
-    <row r="362" ht="15.75" customHeight="1"/>
-    <row r="363" ht="15.75" customHeight="1"/>
-    <row r="364" ht="15.75" customHeight="1"/>
-    <row r="365" ht="15.75" customHeight="1"/>
-    <row r="366" ht="15.75" customHeight="1"/>
-    <row r="367" ht="15.75" customHeight="1"/>
-    <row r="368" ht="15.75" customHeight="1"/>
-    <row r="369" ht="15.75" customHeight="1"/>
-    <row r="370" ht="15.75" customHeight="1"/>
-    <row r="371" ht="15.75" customHeight="1"/>
-    <row r="372" ht="15.75" customHeight="1"/>
-    <row r="373" ht="15.75" customHeight="1"/>
-    <row r="374" ht="15.75" customHeight="1"/>
-    <row r="375" ht="15.75" customHeight="1"/>
-    <row r="376" ht="15.75" customHeight="1"/>
-    <row r="377" ht="15.75" customHeight="1"/>
-    <row r="378" ht="15.75" customHeight="1"/>
-    <row r="379" ht="15.75" customHeight="1"/>
-    <row r="380" ht="15.75" customHeight="1"/>
-    <row r="381" ht="15.75" customHeight="1"/>
-    <row r="382" ht="15.75" customHeight="1"/>
-    <row r="383" ht="15.75" customHeight="1"/>
-    <row r="384" ht="15.75" customHeight="1"/>
-    <row r="385" ht="15.75" customHeight="1"/>
-    <row r="386" ht="15.75" customHeight="1"/>
-    <row r="387" ht="15.75" customHeight="1"/>
-    <row r="388" ht="15.75" customHeight="1"/>
-    <row r="389" ht="15.75" customHeight="1"/>
-    <row r="390" ht="15.75" customHeight="1"/>
-    <row r="391" ht="15.75" customHeight="1"/>
-    <row r="392" ht="15.75" customHeight="1"/>
-    <row r="393" ht="15.75" customHeight="1"/>
-    <row r="394" ht="15.75" customHeight="1"/>
-    <row r="395" ht="15.75" customHeight="1"/>
-    <row r="396" ht="15.75" customHeight="1"/>
-    <row r="397" ht="15.75" customHeight="1"/>
-    <row r="398" ht="15.75" customHeight="1"/>
-    <row r="399" ht="15.75" customHeight="1"/>
-    <row r="400" ht="15.75" customHeight="1"/>
-    <row r="401" ht="15.75" customHeight="1"/>
-    <row r="402" ht="15.75" customHeight="1"/>
-    <row r="403" ht="15.75" customHeight="1"/>
-    <row r="404" ht="15.75" customHeight="1"/>
-    <row r="405" ht="15.75" customHeight="1"/>
-    <row r="406" ht="15.75" customHeight="1"/>
-    <row r="407" ht="15.75" customHeight="1"/>
-    <row r="408" ht="15.75" customHeight="1"/>
-    <row r="409" ht="15.75" customHeight="1"/>
-    <row r="410" ht="15.75" customHeight="1"/>
-    <row r="411" ht="15.75" customHeight="1"/>
-    <row r="412" ht="15.75" customHeight="1"/>
-    <row r="413" ht="15.75" customHeight="1"/>
-    <row r="414" ht="15.75" customHeight="1"/>
-    <row r="415" ht="15.75" customHeight="1"/>
-    <row r="416" ht="15.75" customHeight="1"/>
-    <row r="417" ht="15.75" customHeight="1"/>
-    <row r="418" ht="15.75" customHeight="1"/>
-    <row r="419" ht="15.75" customHeight="1"/>
-    <row r="420" ht="15.75" customHeight="1"/>
-    <row r="421" ht="15.75" customHeight="1"/>
-    <row r="422" ht="15.75" customHeight="1"/>
-    <row r="423" ht="15.75" customHeight="1"/>
-    <row r="424" ht="15.75" customHeight="1"/>
-    <row r="425" ht="15.75" customHeight="1"/>
-    <row r="426" ht="15.75" customHeight="1"/>
-    <row r="427" ht="15.75" customHeight="1"/>
-    <row r="428" ht="15.75" customHeight="1"/>
-    <row r="429" ht="15.75" customHeight="1"/>
-    <row r="430" ht="15.75" customHeight="1"/>
-    <row r="431" ht="15.75" customHeight="1"/>
-    <row r="432" ht="15.75" customHeight="1"/>
-    <row r="433" ht="15.75" customHeight="1"/>
-    <row r="434" ht="15.75" customHeight="1"/>
-    <row r="435" ht="15.75" customHeight="1"/>
-    <row r="436" ht="15.75" customHeight="1"/>
-    <row r="437" ht="15.75" customHeight="1"/>
-    <row r="438" ht="15.75" customHeight="1"/>
-    <row r="439" ht="15.75" customHeight="1"/>
-    <row r="440" ht="15.75" customHeight="1"/>
-    <row r="441" ht="15.75" customHeight="1"/>
-    <row r="442" ht="15.75" customHeight="1"/>
-    <row r="443" ht="15.75" customHeight="1"/>
-    <row r="444" ht="15.75" customHeight="1"/>
-    <row r="445" ht="15.75" customHeight="1"/>
-    <row r="446" ht="15.75" customHeight="1"/>
-    <row r="447" ht="15.75" customHeight="1"/>
-    <row r="448" ht="15.75" customHeight="1"/>
-    <row r="449" ht="15.75" customHeight="1"/>
-    <row r="450" ht="15.75" customHeight="1"/>
-    <row r="451" ht="15.75" customHeight="1"/>
-    <row r="452" ht="15.75" customHeight="1"/>
-    <row r="453" ht="15.75" customHeight="1"/>
-    <row r="454" ht="15.75" customHeight="1"/>
-    <row r="455" ht="15.75" customHeight="1"/>
-    <row r="456" ht="15.75" customHeight="1"/>
-    <row r="457" ht="15.75" customHeight="1"/>
-    <row r="458" ht="15.75" customHeight="1"/>
-    <row r="459" ht="15.75" customHeight="1"/>
-    <row r="460" ht="15.75" customHeight="1"/>
-    <row r="461" ht="15.75" customHeight="1"/>
-    <row r="462" ht="15.75" customHeight="1"/>
-    <row r="463" ht="15.75" customHeight="1"/>
-    <row r="464" ht="15.75" customHeight="1"/>
-    <row r="465" ht="15.75" customHeight="1"/>
-    <row r="466" ht="15.75" customHeight="1"/>
-    <row r="467" ht="15.75" customHeight="1"/>
-    <row r="468" ht="15.75" customHeight="1"/>
-    <row r="469" ht="15.75" customHeight="1"/>
-    <row r="470" ht="15.75" customHeight="1"/>
-    <row r="471" ht="15.75" customHeight="1"/>
-    <row r="472" ht="15.75" customHeight="1"/>
-    <row r="473" ht="15.75" customHeight="1"/>
-    <row r="474" ht="15.75" customHeight="1"/>
-    <row r="475" ht="15.75" customHeight="1"/>
-    <row r="476" ht="15.75" customHeight="1"/>
-    <row r="477" ht="15.75" customHeight="1"/>
-    <row r="478" ht="15.75" customHeight="1"/>
-    <row r="479" ht="15.75" customHeight="1"/>
-    <row r="480" ht="15.75" customHeight="1"/>
-    <row r="481" ht="15.75" customHeight="1"/>
-    <row r="482" ht="15.75" customHeight="1"/>
-    <row r="483" ht="15.75" customHeight="1"/>
-    <row r="484" ht="15.75" customHeight="1"/>
-    <row r="485" ht="15.75" customHeight="1"/>
-    <row r="486" ht="15.75" customHeight="1"/>
-    <row r="487" ht="15.75" customHeight="1"/>
-    <row r="488" ht="15.75" customHeight="1"/>
-    <row r="489" ht="15.75" customHeight="1"/>
-    <row r="490" ht="15.75" customHeight="1"/>
-    <row r="491" ht="15.75" customHeight="1"/>
-    <row r="492" ht="15.75" customHeight="1"/>
-    <row r="493" ht="15.75" customHeight="1"/>
-    <row r="494" ht="15.75" customHeight="1"/>
-    <row r="495" ht="15.75" customHeight="1"/>
-    <row r="496" ht="15.75" customHeight="1"/>
-    <row r="497" ht="15.75" customHeight="1"/>
-    <row r="498" ht="15.75" customHeight="1"/>
-    <row r="499" ht="15.75" customHeight="1"/>
-    <row r="500" ht="15.75" customHeight="1"/>
-    <row r="501" ht="15.75" customHeight="1"/>
-    <row r="502" ht="15.75" customHeight="1"/>
-    <row r="503" ht="15.75" customHeight="1"/>
-    <row r="504" ht="15.75" customHeight="1"/>
-    <row r="505" ht="15.75" customHeight="1"/>
-    <row r="506" ht="15.75" customHeight="1"/>
-    <row r="507" ht="15.75" customHeight="1"/>
-    <row r="508" ht="15.75" customHeight="1"/>
-    <row r="509" ht="15.75" customHeight="1"/>
-    <row r="510" ht="15.75" customHeight="1"/>
-    <row r="511" ht="15.75" customHeight="1"/>
-    <row r="512" ht="15.75" customHeight="1"/>
-    <row r="513" ht="15.75" customHeight="1"/>
-    <row r="514" ht="15.75" customHeight="1"/>
-    <row r="515" ht="15.75" customHeight="1"/>
-    <row r="516" ht="15.75" customHeight="1"/>
-    <row r="517" ht="15.75" customHeight="1"/>
-    <row r="518" ht="15.75" customHeight="1"/>
-    <row r="519" ht="15.75" customHeight="1"/>
-    <row r="520" ht="15.75" customHeight="1"/>
-    <row r="521" ht="15.75" customHeight="1"/>
-    <row r="522" ht="15.75" customHeight="1"/>
-    <row r="523" ht="15.75" customHeight="1"/>
-    <row r="524" ht="15.75" customHeight="1"/>
-    <row r="525" ht="15.75" customHeight="1"/>
-    <row r="526" ht="15.75" customHeight="1"/>
-    <row r="527" ht="15.75" customHeight="1"/>
-    <row r="528" ht="15.75" customHeight="1"/>
-    <row r="529" ht="15.75" customHeight="1"/>
-    <row r="530" ht="15.75" customHeight="1"/>
-    <row r="531" ht="15.75" customHeight="1"/>
-    <row r="532" ht="15.75" customHeight="1"/>
-    <row r="533" ht="15.75" customHeight="1"/>
-    <row r="534" ht="15.75" customHeight="1"/>
-    <row r="535" ht="15.75" customHeight="1"/>
-    <row r="536" ht="15.75" customHeight="1"/>
-    <row r="537" ht="15.75" customHeight="1"/>
-    <row r="538" ht="15.75" customHeight="1"/>
-    <row r="539" ht="15.75" customHeight="1"/>
-    <row r="540" ht="15.75" customHeight="1"/>
-    <row r="541" ht="15.75" customHeight="1"/>
-    <row r="542" ht="15.75" customHeight="1"/>
-    <row r="543" ht="15.75" customHeight="1"/>
-    <row r="544" ht="15.75" customHeight="1"/>
-    <row r="545" ht="15.75" customHeight="1"/>
-    <row r="546" ht="15.75" customHeight="1"/>
-    <row r="547" ht="15.75" customHeight="1"/>
-    <row r="548" ht="15.75" customHeight="1"/>
-    <row r="549" ht="15.75" customHeight="1"/>
-    <row r="550" ht="15.75" customHeight="1"/>
-    <row r="551" ht="15.75" customHeight="1"/>
-    <row r="552" ht="15.75" customHeight="1"/>
-    <row r="553" ht="15.75" customHeight="1"/>
-    <row r="554" ht="15.75" customHeight="1"/>
-    <row r="555" ht="15.75" customHeight="1"/>
-    <row r="556" ht="15.75" customHeight="1"/>
-    <row r="557" ht="15.75" customHeight="1"/>
-    <row r="558" ht="15.75" customHeight="1"/>
-    <row r="559" ht="15.75" customHeight="1"/>
-    <row r="560" ht="15.75" customHeight="1"/>
-    <row r="561" ht="15.75" customHeight="1"/>
-    <row r="562" ht="15.75" customHeight="1"/>
-    <row r="563" ht="15.75" customHeight="1"/>
-    <row r="564" ht="15.75" customHeight="1"/>
-    <row r="565" ht="15.75" customHeight="1"/>
-    <row r="566" ht="15.75" customHeight="1"/>
-    <row r="567" ht="15.75" customHeight="1"/>
-    <row r="568" ht="15.75" customHeight="1"/>
-    <row r="569" ht="15.75" customHeight="1"/>
-    <row r="570" ht="15.75" customHeight="1"/>
-    <row r="571" ht="15.75" customHeight="1"/>
-    <row r="572" ht="15.75" customHeight="1"/>
-    <row r="573" ht="15.75" customHeight="1"/>
-    <row r="574" ht="15.75" customHeight="1"/>
-    <row r="575" ht="15.75" customHeight="1"/>
-    <row r="576" ht="15.75" customHeight="1"/>
-    <row r="577" ht="15.75" customHeight="1"/>
-    <row r="578" ht="15.75" customHeight="1"/>
-    <row r="579" ht="15.75" customHeight="1"/>
-    <row r="580" ht="15.75" customHeight="1"/>
-    <row r="581" ht="15.75" customHeight="1"/>
-    <row r="582" ht="15.75" customHeight="1"/>
-    <row r="583" ht="15.75" customHeight="1"/>
-    <row r="584" ht="15.75" customHeight="1"/>
-    <row r="585" ht="15.75" customHeight="1"/>
-    <row r="586" ht="15.75" customHeight="1"/>
-    <row r="587" ht="15.75" customHeight="1"/>
-    <row r="588" ht="15.75" customHeight="1"/>
-    <row r="589" ht="15.75" customHeight="1"/>
-    <row r="590" ht="15.75" customHeight="1"/>
-    <row r="591" ht="15.75" customHeight="1"/>
-    <row r="592" ht="15.75" customHeight="1"/>
-    <row r="593" ht="15.75" customHeight="1"/>
-    <row r="594" ht="15.75" customHeight="1"/>
-    <row r="595" ht="15.75" customHeight="1"/>
-    <row r="596" ht="15.75" customHeight="1"/>
-    <row r="597" ht="15.75" customHeight="1"/>
-    <row r="598" ht="15.75" customHeight="1"/>
-    <row r="599" ht="15.75" customHeight="1"/>
-    <row r="600" ht="15.75" customHeight="1"/>
-    <row r="601" ht="15.75" customHeight="1"/>
-    <row r="602" ht="15.75" customHeight="1"/>
-    <row r="603" ht="15.75" customHeight="1"/>
-    <row r="604" ht="15.75" customHeight="1"/>
-    <row r="605" ht="15.75" customHeight="1"/>
-    <row r="606" ht="15.75" customHeight="1"/>
-    <row r="607" ht="15.75" customHeight="1"/>
-    <row r="608" ht="15.75" customHeight="1"/>
-    <row r="609" ht="15.75" customHeight="1"/>
-    <row r="610" ht="15.75" customHeight="1"/>
-    <row r="611" ht="15.75" customHeight="1"/>
-    <row r="612" ht="15.75" customHeight="1"/>
-    <row r="613" ht="15.75" customHeight="1"/>
-    <row r="614" ht="15.75" customHeight="1"/>
-    <row r="615" ht="15.75" customHeight="1"/>
-    <row r="616" ht="15.75" customHeight="1"/>
-    <row r="617" ht="15.75" customHeight="1"/>
-    <row r="618" ht="15.75" customHeight="1"/>
-    <row r="619" ht="15.75" customHeight="1"/>
-    <row r="620" ht="15.75" customHeight="1"/>
-    <row r="621" ht="15.75" customHeight="1"/>
-    <row r="622" ht="15.75" customHeight="1"/>
-    <row r="623" ht="15.75" customHeight="1"/>
-    <row r="624" ht="15.75" customHeight="1"/>
-    <row r="625" ht="15.75" customHeight="1"/>
-    <row r="626" ht="15.75" customHeight="1"/>
-    <row r="627" ht="15.75" customHeight="1"/>
-    <row r="628" ht="15.75" customHeight="1"/>
-    <row r="629" ht="15.75" customHeight="1"/>
-    <row r="630" ht="15.75" customHeight="1"/>
-    <row r="631" ht="15.75" customHeight="1"/>
-    <row r="632" ht="15.75" customHeight="1"/>
-    <row r="633" ht="15.75" customHeight="1"/>
-    <row r="634" ht="15.75" customHeight="1"/>
-    <row r="635" ht="15.75" customHeight="1"/>
-    <row r="636" ht="15.75" customHeight="1"/>
-    <row r="637" ht="15.75" customHeight="1"/>
-    <row r="638" ht="15.75" customHeight="1"/>
-    <row r="639" ht="15.75" customHeight="1"/>
-    <row r="640" ht="15.75" customHeight="1"/>
-    <row r="641" ht="15.75" customHeight="1"/>
-    <row r="642" ht="15.75" customHeight="1"/>
-    <row r="643" ht="15.75" customHeight="1"/>
-    <row r="644" ht="15.75" customHeight="1"/>
-    <row r="645" ht="15.75" customHeight="1"/>
-    <row r="646" ht="15.75" customHeight="1"/>
-    <row r="647" ht="15.75" customHeight="1"/>
-    <row r="648" ht="15.75" customHeight="1"/>
-    <row r="649" ht="15.75" customHeight="1"/>
-    <row r="650" ht="15.75" customHeight="1"/>
-    <row r="651" ht="15.75" customHeight="1"/>
-    <row r="652" ht="15.75" customHeight="1"/>
-    <row r="653" ht="15.75" customHeight="1"/>
-    <row r="654" ht="15.75" customHeight="1"/>
-    <row r="655" ht="15.75" customHeight="1"/>
-    <row r="656" ht="15.75" customHeight="1"/>
-    <row r="657" ht="15.75" customHeight="1"/>
-    <row r="658" ht="15.75" customHeight="1"/>
-    <row r="659" ht="15.75" customHeight="1"/>
-    <row r="660" ht="15.75" customHeight="1"/>
-    <row r="661" ht="15.75" customHeight="1"/>
-    <row r="662" ht="15.75" customHeight="1"/>
-    <row r="663" ht="15.75" customHeight="1"/>
-    <row r="664" ht="15.75" customHeight="1"/>
-    <row r="665" ht="15.75" customHeight="1"/>
-    <row r="666" ht="15.75" customHeight="1"/>
-    <row r="667" ht="15.75" customHeight="1"/>
-    <row r="668" ht="15.75" customHeight="1"/>
-    <row r="669" ht="15.75" customHeight="1"/>
-    <row r="670" ht="15.75" customHeight="1"/>
-    <row r="671" ht="15.75" customHeight="1"/>
-    <row r="672" ht="15.75" customHeight="1"/>
-    <row r="673" ht="15.75" customHeight="1"/>
-    <row r="674" ht="15.75" customHeight="1"/>
-    <row r="675" ht="15.75" customHeight="1"/>
-    <row r="676" ht="15.75" customHeight="1"/>
-    <row r="677" ht="15.75" customHeight="1"/>
-    <row r="678" ht="15.75" customHeight="1"/>
-    <row r="679" ht="15.75" customHeight="1"/>
-    <row r="680" ht="15.75" customHeight="1"/>
-    <row r="681" ht="15.75" customHeight="1"/>
-    <row r="682" ht="15.75" customHeight="1"/>
-    <row r="683" ht="15.75" customHeight="1"/>
-    <row r="684" ht="15.75" customHeight="1"/>
-    <row r="685" ht="15.75" customHeight="1"/>
-    <row r="686" ht="15.75" customHeight="1"/>
-    <row r="687" ht="15.75" customHeight="1"/>
-    <row r="688" ht="15.75" customHeight="1"/>
-    <row r="689" ht="15.75" customHeight="1"/>
-    <row r="690" ht="15.75" customHeight="1"/>
-    <row r="691" ht="15.75" customHeight="1"/>
-    <row r="692" ht="15.75" customHeight="1"/>
-    <row r="693" ht="15.75" customHeight="1"/>
-    <row r="694" ht="15.75" customHeight="1"/>
-    <row r="695" ht="15.75" customHeight="1"/>
-    <row r="696" ht="15.75" customHeight="1"/>
-    <row r="697" ht="15.75" customHeight="1"/>
-    <row r="698" ht="15.75" customHeight="1"/>
-    <row r="699" ht="15.75" customHeight="1"/>
-    <row r="700" ht="15.75" customHeight="1"/>
-    <row r="701" ht="15.75" customHeight="1"/>
-    <row r="702" ht="15.75" customHeight="1"/>
-    <row r="703" ht="15.75" customHeight="1"/>
-    <row r="704" ht="15.75" customHeight="1"/>
-    <row r="705" ht="15.75" customHeight="1"/>
-    <row r="706" ht="15.75" customHeight="1"/>
-    <row r="707" ht="15.75" customHeight="1"/>
-    <row r="708" ht="15.75" customHeight="1"/>
-    <row r="709" ht="15.75" customHeight="1"/>
-    <row r="710" ht="15.75" customHeight="1"/>
-    <row r="711" ht="15.75" customHeight="1"/>
-    <row r="712" ht="15.75" customHeight="1"/>
-    <row r="713" ht="15.75" customHeight="1"/>
-    <row r="714" ht="15.75" customHeight="1"/>
-    <row r="715" ht="15.75" customHeight="1"/>
-    <row r="716" ht="15.75" customHeight="1"/>
-    <row r="717" ht="15.75" customHeight="1"/>
-    <row r="718" ht="15.75" customHeight="1"/>
-    <row r="719" ht="15.75" customHeight="1"/>
-    <row r="720" ht="15.75" customHeight="1"/>
-    <row r="721" ht="15.75" customHeight="1"/>
-    <row r="722" ht="15.75" customHeight="1"/>
-    <row r="723" ht="15.75" customHeight="1"/>
-    <row r="724" ht="15.75" customHeight="1"/>
-    <row r="725" ht="15.75" customHeight="1"/>
-    <row r="726" ht="15.75" customHeight="1"/>
-    <row r="727" ht="15.75" customHeight="1"/>
-    <row r="728" ht="15.75" customHeight="1"/>
-    <row r="729" ht="15.75" customHeight="1"/>
-    <row r="730" ht="15.75" customHeight="1"/>
-    <row r="731" ht="15.75" customHeight="1"/>
-    <row r="732" ht="15.75" customHeight="1"/>
-    <row r="733" ht="15.75" customHeight="1"/>
-    <row r="734" ht="15.75" customHeight="1"/>
-    <row r="735" ht="15.75" customHeight="1"/>
-    <row r="736" ht="15.75" customHeight="1"/>
-    <row r="737" ht="15.75" customHeight="1"/>
-    <row r="738" ht="15.75" customHeight="1"/>
-    <row r="739" ht="15.75" customHeight="1"/>
-    <row r="740" ht="15.75" customHeight="1"/>
-    <row r="741" ht="15.75" customHeight="1"/>
-    <row r="742" ht="15.75" customHeight="1"/>
-    <row r="743" ht="15.75" customHeight="1"/>
-    <row r="744" ht="15.75" customHeight="1"/>
-    <row r="745" ht="15.75" customHeight="1"/>
-    <row r="746" ht="15.75" customHeight="1"/>
-    <row r="747" ht="15.75" customHeight="1"/>
-    <row r="748" ht="15.75" customHeight="1"/>
-    <row r="749" ht="15.75" customHeight="1"/>
-    <row r="750" ht="15.75" customHeight="1"/>
-    <row r="751" ht="15.75" customHeight="1"/>
-    <row r="752" ht="15.75" customHeight="1"/>
-    <row r="753" ht="15.75" customHeight="1"/>
-    <row r="754" ht="15.75" customHeight="1"/>
-    <row r="755" ht="15.75" customHeight="1"/>
-    <row r="756" ht="15.75" customHeight="1"/>
-    <row r="757" ht="15.75" customHeight="1"/>
-    <row r="758" ht="15.75" customHeight="1"/>
-    <row r="759" ht="15.75" customHeight="1"/>
-    <row r="760" ht="15.75" customHeight="1"/>
-    <row r="761" ht="15.75" customHeight="1"/>
-    <row r="762" ht="15.75" customHeight="1"/>
-    <row r="763" ht="15.75" customHeight="1"/>
-    <row r="764" ht="15.75" customHeight="1"/>
-    <row r="765" ht="15.75" customHeight="1"/>
-    <row r="766" ht="15.75" customHeight="1"/>
-    <row r="767" ht="15.75" customHeight="1"/>
-    <row r="768" ht="15.75" customHeight="1"/>
-    <row r="769" ht="15.75" customHeight="1"/>
-    <row r="770" ht="15.75" customHeight="1"/>
-    <row r="771" ht="15.75" customHeight="1"/>
-    <row r="772" ht="15.75" customHeight="1"/>
-    <row r="773" ht="15.75" customHeight="1"/>
-    <row r="774" ht="15.75" customHeight="1"/>
-    <row r="775" ht="15.75" customHeight="1"/>
-    <row r="776" ht="15.75" customHeight="1"/>
-    <row r="777" ht="15.75" customHeight="1"/>
-    <row r="778" ht="15.75" customHeight="1"/>
-    <row r="779" ht="15.75" customHeight="1"/>
-    <row r="780" ht="15.75" customHeight="1"/>
-    <row r="781" ht="15.75" customHeight="1"/>
-    <row r="782" ht="15.75" customHeight="1"/>
-    <row r="783" ht="15.75" customHeight="1"/>
-    <row r="784" ht="15.75" customHeight="1"/>
-    <row r="785" ht="15.75" customHeight="1"/>
-    <row r="786" ht="15.75" customHeight="1"/>
-    <row r="787" ht="15.75" customHeight="1"/>
-    <row r="788" ht="15.75" customHeight="1"/>
-    <row r="789" ht="15.75" customHeight="1"/>
-    <row r="790" ht="15.75" customHeight="1"/>
-    <row r="791" ht="15.75" customHeight="1"/>
-    <row r="792" ht="15.75" customHeight="1"/>
-    <row r="793" ht="15.75" customHeight="1"/>
-    <row r="794" ht="15.75" customHeight="1"/>
-    <row r="795" ht="15.75" customHeight="1"/>
-    <row r="796" ht="15.75" customHeight="1"/>
-    <row r="797" ht="15.75" customHeight="1"/>
-    <row r="798" ht="15.75" customHeight="1"/>
-    <row r="799" ht="15.75" customHeight="1"/>
-    <row r="800" ht="15.75" customHeight="1"/>
-    <row r="801" ht="15.75" customHeight="1"/>
-    <row r="802" ht="15.75" customHeight="1"/>
-    <row r="803" ht="15.75" customHeight="1"/>
-    <row r="804" ht="15.75" customHeight="1"/>
-    <row r="805" ht="15.75" customHeight="1"/>
-    <row r="806" ht="15.75" customHeight="1"/>
-    <row r="807" ht="15.75" customHeight="1"/>
-    <row r="808" ht="15.75" customHeight="1"/>
-    <row r="809" ht="15.75" customHeight="1"/>
-    <row r="810" ht="15.75" customHeight="1"/>
-    <row r="811" ht="15.75" customHeight="1"/>
-    <row r="812" ht="15.75" customHeight="1"/>
-    <row r="813" ht="15.75" customHeight="1"/>
-    <row r="814" ht="15.75" customHeight="1"/>
-    <row r="815" ht="15.75" customHeight="1"/>
-    <row r="816" ht="15.75" customHeight="1"/>
-    <row r="817" ht="15.75" customHeight="1"/>
-    <row r="818" ht="15.75" customHeight="1"/>
-    <row r="819" ht="15.75" customHeight="1"/>
-    <row r="820" ht="15.75" customHeight="1"/>
-    <row r="821" ht="15.75" customHeight="1"/>
-    <row r="822" ht="15.75" customHeight="1"/>
-    <row r="823" ht="15.75" customHeight="1"/>
-    <row r="824" ht="15.75" customHeight="1"/>
-    <row r="825" ht="15.75" customHeight="1"/>
-    <row r="826" ht="15.75" customHeight="1"/>
-    <row r="827" ht="15.75" customHeight="1"/>
-    <row r="828" ht="15.75" customHeight="1"/>
-    <row r="829" ht="15.75" customHeight="1"/>
-    <row r="830" ht="15.75" customHeight="1"/>
-    <row r="831" ht="15.75" customHeight="1"/>
-    <row r="832" ht="15.75" customHeight="1"/>
-    <row r="833" ht="15.75" customHeight="1"/>
-    <row r="834" ht="15.75" customHeight="1"/>
-    <row r="835" ht="15.75" customHeight="1"/>
-    <row r="836" ht="15.75" customHeight="1"/>
-    <row r="837" ht="15.75" customHeight="1"/>
-    <row r="838" ht="15.75" customHeight="1"/>
-    <row r="839" ht="15.75" customHeight="1"/>
-    <row r="840" ht="15.75" customHeight="1"/>
-    <row r="841" ht="15.75" customHeight="1"/>
-    <row r="842" ht="15.75" customHeight="1"/>
-    <row r="843" ht="15.75" customHeight="1"/>
-    <row r="844" ht="15.75" customHeight="1"/>
-    <row r="845" ht="15.75" customHeight="1"/>
-    <row r="846" ht="15.75" customHeight="1"/>
-    <row r="847" ht="15.75" customHeight="1"/>
-    <row r="848" ht="15.75" customHeight="1"/>
-    <row r="849" ht="15.75" customHeight="1"/>
-    <row r="850" ht="15.75" customHeight="1"/>
-    <row r="851" ht="15.75" customHeight="1"/>
-    <row r="852" ht="15.75" customHeight="1"/>
-    <row r="853" ht="15.75" customHeight="1"/>
-    <row r="854" ht="15.75" customHeight="1"/>
-    <row r="855" ht="15.75" customHeight="1"/>
-    <row r="856" ht="15.75" customHeight="1"/>
-    <row r="857" ht="15.75" customHeight="1"/>
-    <row r="858" ht="15.75" customHeight="1"/>
-    <row r="859" ht="15.75" customHeight="1"/>
-    <row r="860" ht="15.75" customHeight="1"/>
-    <row r="861" ht="15.75" customHeight="1"/>
-    <row r="862" ht="15.75" customHeight="1"/>
-    <row r="863" ht="15.75" customHeight="1"/>
-    <row r="864" ht="15.75" customHeight="1"/>
-    <row r="865" ht="15.75" customHeight="1"/>
-    <row r="866" ht="15.75" customHeight="1"/>
-    <row r="867" ht="15.75" customHeight="1"/>
-    <row r="868" ht="15.75" customHeight="1"/>
-    <row r="869" ht="15.75" customHeight="1"/>
-    <row r="870" ht="15.75" customHeight="1"/>
-    <row r="871" ht="15.75" customHeight="1"/>
-    <row r="872" ht="15.75" customHeight="1"/>
-    <row r="873" ht="15.75" customHeight="1"/>
-    <row r="874" ht="15.75" customHeight="1"/>
-    <row r="875" ht="15.75" customHeight="1"/>
-    <row r="876" ht="15.75" customHeight="1"/>
-    <row r="877" ht="15.75" customHeight="1"/>
-    <row r="878" ht="15.75" customHeight="1"/>
-    <row r="879" ht="15.75" customHeight="1"/>
-    <row r="880" ht="15.75" customHeight="1"/>
-    <row r="881" ht="15.75" customHeight="1"/>
-    <row r="882" ht="15.75" customHeight="1"/>
-    <row r="883" ht="15.75" customHeight="1"/>
-    <row r="884" ht="15.75" customHeight="1"/>
-    <row r="885" ht="15.75" customHeight="1"/>
-    <row r="886" ht="15.75" customHeight="1"/>
-    <row r="887" ht="15.75" customHeight="1"/>
-    <row r="888" ht="15.75" customHeight="1"/>
-    <row r="889" ht="15.75" customHeight="1"/>
-    <row r="890" ht="15.75" customHeight="1"/>
-    <row r="891" ht="15.75" customHeight="1"/>
-    <row r="892" ht="15.75" customHeight="1"/>
-    <row r="893" ht="15.75" customHeight="1"/>
-    <row r="894" ht="15.75" customHeight="1"/>
-    <row r="895" ht="15.75" customHeight="1"/>
-    <row r="896" ht="15.75" customHeight="1"/>
-    <row r="897" ht="15.75" customHeight="1"/>
-    <row r="898" ht="15.75" customHeight="1"/>
-    <row r="899" ht="15.75" customHeight="1"/>
-    <row r="900" ht="15.75" customHeight="1"/>
-    <row r="901" ht="15.75" customHeight="1"/>
-    <row r="902" ht="15.75" customHeight="1"/>
-    <row r="903" ht="15.75" customHeight="1"/>
-    <row r="904" ht="15.75" customHeight="1"/>
-    <row r="905" ht="15.75" customHeight="1"/>
-    <row r="906" ht="15.75" customHeight="1"/>
-    <row r="907" ht="15.75" customHeight="1"/>
-    <row r="908" ht="15.75" customHeight="1"/>
-    <row r="909" ht="15.75" customHeight="1"/>
-    <row r="910" ht="15.75" customHeight="1"/>
-    <row r="911" ht="15.75" customHeight="1"/>
-    <row r="912" ht="15.75" customHeight="1"/>
-    <row r="913" ht="15.75" customHeight="1"/>
-    <row r="914" ht="15.75" customHeight="1"/>
-    <row r="915" ht="15.75" customHeight="1"/>
-    <row r="916" ht="15.75" customHeight="1"/>
-    <row r="917" ht="15.75" customHeight="1"/>
-    <row r="918" ht="15.75" customHeight="1"/>
-    <row r="919" ht="15.75" customHeight="1"/>
-    <row r="920" ht="15.75" customHeight="1"/>
-    <row r="921" ht="15.75" customHeight="1"/>
-    <row r="922" ht="15.75" customHeight="1"/>
-    <row r="923" ht="15.75" customHeight="1"/>
-    <row r="924" ht="15.75" customHeight="1"/>
-    <row r="925" ht="15.75" customHeight="1"/>
-    <row r="926" ht="15.75" customHeight="1"/>
-    <row r="927" ht="15.75" customHeight="1"/>
-    <row r="928" ht="15.75" customHeight="1"/>
-    <row r="929" ht="15.75" customHeight="1"/>
-    <row r="930" ht="15.75" customHeight="1"/>
-    <row r="931" ht="15.75" customHeight="1"/>
-    <row r="932" ht="15.75" customHeight="1"/>
-    <row r="933" ht="15.75" customHeight="1"/>
-    <row r="934" ht="15.75" customHeight="1"/>
-    <row r="935" ht="15.75" customHeight="1"/>
-    <row r="936" ht="15.75" customHeight="1"/>
-    <row r="937" ht="15.75" customHeight="1"/>
-    <row r="938" ht="15.75" customHeight="1"/>
-    <row r="939" ht="15.75" customHeight="1"/>
-    <row r="940" ht="15.75" customHeight="1"/>
-    <row r="941" ht="15.75" customHeight="1"/>
-    <row r="942" ht="15.75" customHeight="1"/>
-    <row r="943" ht="15.75" customHeight="1"/>
-    <row r="944" ht="15.75" customHeight="1"/>
-    <row r="945" ht="15.75" customHeight="1"/>
-    <row r="946" ht="15.75" customHeight="1"/>
-    <row r="947" ht="15.75" customHeight="1"/>
-    <row r="948" ht="15.75" customHeight="1"/>
-    <row r="949" ht="15.75" customHeight="1"/>
-    <row r="950" ht="15.75" customHeight="1"/>
-    <row r="951" ht="15.75" customHeight="1"/>
-    <row r="952" ht="15.75" customHeight="1"/>
-    <row r="953" ht="15.75" customHeight="1"/>
-    <row r="954" ht="15.75" customHeight="1"/>
-    <row r="955" ht="15.75" customHeight="1"/>
-    <row r="956" ht="15.75" customHeight="1"/>
-    <row r="957" ht="15.75" customHeight="1"/>
-    <row r="958" ht="15.75" customHeight="1"/>
-    <row r="959" ht="15.75" customHeight="1"/>
-    <row r="960" ht="15.75" customHeight="1"/>
-    <row r="961" ht="15.75" customHeight="1"/>
-    <row r="962" ht="15.75" customHeight="1"/>
-    <row r="963" ht="15.75" customHeight="1"/>
-    <row r="964" ht="15.75" customHeight="1"/>
-    <row r="965" ht="15.75" customHeight="1"/>
-    <row r="966" ht="15.75" customHeight="1"/>
-    <row r="967" ht="15.75" customHeight="1"/>
-    <row r="968" ht="15.75" customHeight="1"/>
-    <row r="969" ht="15.75" customHeight="1"/>
-    <row r="970" ht="15.75" customHeight="1"/>
-    <row r="971" ht="15.75" customHeight="1"/>
-    <row r="972" ht="15.75" customHeight="1"/>
-    <row r="973" ht="15.75" customHeight="1"/>
-    <row r="974" ht="15.75" customHeight="1"/>
-    <row r="975" ht="15.75" customHeight="1"/>
-    <row r="976" ht="15.75" customHeight="1"/>
-    <row r="977" ht="15.75" customHeight="1"/>
-    <row r="978" ht="15.75" customHeight="1"/>
-    <row r="979" ht="15.75" customHeight="1"/>
-    <row r="980" ht="15.75" customHeight="1"/>
-    <row r="981" ht="15.75" customHeight="1"/>
-    <row r="982" ht="15.75" customHeight="1"/>
-    <row r="983" ht="15.75" customHeight="1"/>
-    <row r="984" ht="15.75" customHeight="1"/>
-    <row r="985" ht="15.75" customHeight="1"/>
-    <row r="986" ht="15.75" customHeight="1"/>
-    <row r="987" ht="15.75" customHeight="1"/>
-    <row r="988" ht="15.75" customHeight="1"/>
-    <row r="989" ht="15.75" customHeight="1"/>
-    <row r="990" ht="15.75" customHeight="1"/>
-    <row r="991" ht="15.75" customHeight="1"/>
-    <row r="992" ht="15.75" customHeight="1"/>
-    <row r="993" ht="15.75" customHeight="1"/>
-    <row r="994" ht="15.75" customHeight="1"/>
-    <row r="995" ht="15.75" customHeight="1"/>
-    <row r="996" ht="15.75" customHeight="1"/>
-    <row r="997" ht="15.75" customHeight="1"/>
-    <row r="998" ht="15.75" customHeight="1"/>
-    <row r="999" ht="15.75" customHeight="1"/>
-    <row r="1000" ht="15.75" customHeight="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="224" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="968" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="969" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="970" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="971" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="972" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="973" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="979" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="980" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="982" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="983" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="984" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="985" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="986" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="987" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="988" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="989" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="990" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="991" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="992" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="993" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="994" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="995" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="996" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>